--- a/errors_table/errorsTable_15min_LSTM_mae-mse-huber.xlsx
+++ b/errors_table/errorsTable_15min_LSTM_mae-mse-huber.xlsx
@@ -775,100 +775,100 @@
         <v>8</v>
       </c>
       <c r="E5" t="n">
-        <v>0.013017267</v>
+        <v>0.0150041999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003350181</v>
+        <v>0.0004644361</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09032869340000001</v>
+        <v>0.1127824783</v>
       </c>
       <c r="H5" t="n">
-        <v>4.0984663963</v>
+        <v>5.2422862053</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0143599976</v>
+        <v>0.0193367973</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0005227312</v>
+        <v>0.0009260924</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1337336302</v>
+        <v>0.1941526532</v>
       </c>
       <c r="L5" t="n">
-        <v>9.1457614899</v>
+        <v>14.5507297516</v>
       </c>
       <c r="M5" t="n">
-        <v>0.07340810146463411</v>
+        <v>0.08713245520243898</v>
       </c>
       <c r="N5" t="n">
-        <v>0.01084120323679338</v>
+        <v>0.01322879565028934</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3738010825</v>
+        <v>0.3662151112999998</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01577159120654701</v>
+        <v>0.01917805240263791</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.1471455302463415</v>
+        <v>0.2049857087914634</v>
       </c>
       <c r="R5" t="n">
-        <v>0.03074692410535063</v>
+        <v>0.04998100075705328</v>
       </c>
       <c r="S5" t="n">
-        <v>0.4559996869000003</v>
+        <v>0.4581298399999998</v>
       </c>
       <c r="T5" t="n">
-        <v>0.03070735453534065</v>
+        <v>0.04484785861462664</v>
       </c>
       <c r="U5" t="n">
-        <v>0.08472918057560991</v>
+        <v>0.09358293865731712</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01248035575685384</v>
+        <v>0.01512463012686926</v>
       </c>
       <c r="W5" t="n">
-        <v>0.3563977511999994</v>
+        <v>0.3930178176000005</v>
       </c>
       <c r="X5" t="n">
-        <v>0.01171603986015334</v>
+        <v>0.01288598188120367</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.1036227231000001</v>
+        <v>0.1571766717621952</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.01744047403294654</v>
+        <v>0.03214146853309562</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.3728504221000009</v>
+        <v>0.4359028488999996</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.01486128729903133</v>
+        <v>0.02223979184531321</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.07652790779103481</v>
+        <v>0.08520624953354147</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.009197122629718103</v>
+        <v>0.01082621235206209</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.3924444153</v>
+        <v>0.4116257720999998</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.01553163943379163</v>
+        <v>0.01730429481936817</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.177313968938537</v>
+        <v>0.215171872347636</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.03573904102137088</v>
+        <v>0.05024528974572511</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.4861516021000005</v>
+        <v>0.5421935017999999</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.03606477543037612</v>
+        <v>0.04373778559697056</v>
       </c>
     </row>
     <row r="6">
@@ -887,100 +887,100 @@
         <v>16</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0174059886</v>
+        <v>0.0134369098</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00071481</v>
+        <v>0.0003546652</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1470702589</v>
+        <v>0.078820318</v>
       </c>
       <c r="H6" t="n">
-        <v>5.6080064774</v>
+        <v>4.3206686974</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0186796319</v>
+        <v>0.0184779037</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0010996538</v>
+        <v>0.0007264043</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2132236362</v>
+        <v>0.1395274401</v>
       </c>
       <c r="L6" t="n">
-        <v>12.5378646851</v>
+        <v>15.690653801</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0738992676268293</v>
+        <v>0.09365449193048778</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01280126558683236</v>
+        <v>0.01364614231864257</v>
       </c>
       <c r="O6" t="n">
-        <v>0.360858146</v>
+        <v>0.3431521409</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01604968130965899</v>
+        <v>0.02095367475148259</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.1137705539256098</v>
+        <v>0.2871720668256098</v>
       </c>
       <c r="R6" t="n">
-        <v>0.02850441061122369</v>
+        <v>0.09924895117487342</v>
       </c>
       <c r="S6" t="n">
-        <v>0.6331380751999998</v>
+        <v>0.5757091534000001</v>
       </c>
       <c r="T6" t="n">
-        <v>0.02459179362704021</v>
+        <v>0.06378066916460212</v>
       </c>
       <c r="U6" t="n">
-        <v>0.09685707538780487</v>
+        <v>0.08409094357682924</v>
       </c>
       <c r="V6" t="n">
-        <v>0.0182517024771235</v>
+        <v>0.01235060334705156</v>
       </c>
       <c r="W6" t="n">
-        <v>0.3882775596999997</v>
+        <v>0.3420374807000002</v>
       </c>
       <c r="X6" t="n">
-        <v>0.01304948457820916</v>
+        <v>0.01180574616415395</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.2124381140573171</v>
+        <v>0.1384540965536586</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.1220791462719739</v>
+        <v>0.03034102997371167</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.9345520131000002</v>
+        <v>0.4383362913000006</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.0279600992077929</v>
+        <v>0.02168252878731586</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.05411510949214986</v>
+        <v>0.08318048070847457</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.005240792030545934</v>
+        <v>0.01047380758161532</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.3882775596999997</v>
+        <v>0.4135514535000002</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.01086070266435501</v>
+        <v>0.01693586533446379</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.07009413974272971</v>
+        <v>0.4277105660935772</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01157983306558142</v>
+        <v>0.1906173135636298</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.93430049</v>
+        <v>0.7572189151000002</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.01388045887696081</v>
+        <v>0.08721984374706636</v>
       </c>
     </row>
     <row r="7">
@@ -6151,100 +6151,100 @@
         <v>8</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0157532804</v>
+        <v>0.0131192449</v>
       </c>
       <c r="F53" t="n">
-        <v>0.000470902</v>
+        <v>0.000308829</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0973523557</v>
+        <v>0.0742125213</v>
       </c>
       <c r="H53" t="n">
-        <v>5.6280498505</v>
+        <v>4.6053113937</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0166227557</v>
+        <v>0.0164332055</v>
       </c>
       <c r="J53" t="n">
-        <v>0.000711633</v>
+        <v>0.0005537976000000001</v>
       </c>
       <c r="K53" t="n">
-        <v>0.1712013483</v>
+        <v>0.1182358861</v>
       </c>
       <c r="L53" t="n">
-        <v>9.824978828400001</v>
+        <v>11.1525058746</v>
       </c>
       <c r="M53" t="n">
-        <v>0.08576458181463416</v>
+        <v>0.0818377707304878</v>
       </c>
       <c r="N53" t="n">
-        <v>0.01424927895093201</v>
+        <v>0.01209793948800776</v>
       </c>
       <c r="O53" t="n">
-        <v>0.4563898876000003</v>
+        <v>0.3902369286000003</v>
       </c>
       <c r="P53" t="n">
-        <v>0.01833025164548838</v>
+        <v>0.0178633360980038</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.2146259394914634</v>
+        <v>0.1945812697304878</v>
       </c>
       <c r="R53" t="n">
-        <v>0.07176242321285822</v>
+        <v>0.04526021144083293</v>
       </c>
       <c r="S53" t="n">
-        <v>0.8424468931</v>
+        <v>0.4121204594000005</v>
       </c>
       <c r="T53" t="n">
-        <v>0.04478779510565777</v>
+        <v>0.04182962875173239</v>
       </c>
       <c r="U53" t="n">
-        <v>0.09633702674390256</v>
+        <v>0.08848998830609772</v>
       </c>
       <c r="V53" t="n">
-        <v>0.01548826187388691</v>
+        <v>0.01366713187781579</v>
       </c>
       <c r="W53" t="n">
-        <v>0.3736916650000008</v>
+        <v>0.3646480493999995</v>
       </c>
       <c r="X53" t="n">
-        <v>0.01331870205796255</v>
+        <v>0.01224940581305646</v>
       </c>
       <c r="Y53" t="n">
-        <v>0.1392483023378049</v>
+        <v>0.12127288045</v>
       </c>
       <c r="Z53" t="n">
-        <v>0.02920029753122807</v>
+        <v>0.02271027606741211</v>
       </c>
       <c r="AA53" t="n">
-        <v>0.4198374676000007</v>
+        <v>0.3823389618000004</v>
       </c>
       <c r="AB53" t="n">
-        <v>0.02122011174367279</v>
+        <v>0.01794097147717012</v>
       </c>
       <c r="AC53" t="n">
-        <v>0.09044352200115968</v>
+        <v>0.07962783087689564</v>
       </c>
       <c r="AD53" t="n">
-        <v>0.01219641144390096</v>
+        <v>0.009820395238355756</v>
       </c>
       <c r="AE53" t="n">
-        <v>0.4563898876000003</v>
+        <v>0.4060485868999999</v>
       </c>
       <c r="AF53" t="n">
-        <v>0.0183424040478722</v>
+        <v>0.01616918425406375</v>
       </c>
       <c r="AG53" t="n">
-        <v>0.2568661239349688</v>
+        <v>0.2483081704223461</v>
       </c>
       <c r="AH53" t="n">
-        <v>0.07114319490966882</v>
+        <v>0.06628047493928553</v>
       </c>
       <c r="AI53" t="n">
-        <v>0.8424468931</v>
+        <v>0.5611438993000002</v>
       </c>
       <c r="AJ53" t="n">
-        <v>0.05225711040758182</v>
+        <v>0.05056413339588821</v>
       </c>
     </row>
     <row r="54">
@@ -9623,100 +9623,100 @@
         <v>192</v>
       </c>
       <c r="E84" t="n">
-        <v>0.0240436587</v>
+        <v>0.0126370313</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0013827909</v>
+        <v>0.0003076202</v>
       </c>
       <c r="G84" t="n">
-        <v>0.2224218249</v>
+        <v>0.0766711533</v>
       </c>
       <c r="H84" t="n">
-        <v>8.6455955505</v>
+        <v>4.3365049362</v>
       </c>
       <c r="I84" t="n">
-        <v>0.032561399</v>
+        <v>0.0172465891</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0029977444</v>
+        <v>0.0007563926</v>
       </c>
       <c r="K84" t="n">
-        <v>0.2917563021</v>
+        <v>0.1346835494</v>
       </c>
       <c r="L84" t="n">
-        <v>36.7676048279</v>
+        <v>11.1159849167</v>
       </c>
       <c r="M84" t="n">
-        <v>0.1340179127207317</v>
+        <v>0.06306840079512194</v>
       </c>
       <c r="N84" t="n">
-        <v>0.03750692281709675</v>
+        <v>0.008202714067410178</v>
       </c>
       <c r="O84" t="n">
-        <v>0.5743751574000004</v>
+        <v>0.3537708350999997</v>
       </c>
       <c r="P84" t="n">
-        <v>0.03074659870116973</v>
+        <v>0.01365089297242335</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.3486471609085365</v>
+        <v>0.07823681209756098</v>
       </c>
       <c r="R84" t="n">
-        <v>0.2130602437030954</v>
+        <v>0.01526301029178394</v>
       </c>
       <c r="S84" t="n">
-        <v>1.4224493238</v>
+        <v>0.5127636959000004</v>
       </c>
       <c r="T84" t="n">
-        <v>0.08091268635638606</v>
+        <v>0.01686141034126713</v>
       </c>
       <c r="U84" t="n">
-        <v>0.1189889498048781</v>
+        <v>0.0808758250560976</v>
       </c>
       <c r="V84" t="n">
-        <v>0.02726420394210503</v>
+        <v>0.01283922559944707</v>
       </c>
       <c r="W84" t="n">
-        <v>0.4810617185000003</v>
+        <v>0.3766147714999999</v>
       </c>
       <c r="X84" t="n">
-        <v>0.01607163608608999</v>
+        <v>0.01071336272032081</v>
       </c>
       <c r="Y84" t="n">
-        <v>0.3855416595682928</v>
+        <v>0.1001011052195122</v>
       </c>
       <c r="Z84" t="n">
-        <v>0.2353077315129476</v>
+        <v>0.01792016764355401</v>
       </c>
       <c r="AA84" t="n">
-        <v>0.9288383595999994</v>
+        <v>0.4084310862000002</v>
       </c>
       <c r="AB84" t="n">
-        <v>0.04816434601703992</v>
+        <v>0.01306204905904651</v>
       </c>
       <c r="AC84" t="n">
-        <v>0.05833361402301517</v>
+        <v>0.05543934815762713</v>
       </c>
       <c r="AD84" t="n">
-        <v>0.00689273417246456</v>
+        <v>0.004966949148698544</v>
       </c>
       <c r="AE84" t="n">
-        <v>0.5743751574000004</v>
+        <v>0.3766147714999999</v>
       </c>
       <c r="AF84" t="n">
-        <v>0.01178458436571879</v>
+        <v>0.01112281634232976</v>
       </c>
       <c r="AG84" t="n">
-        <v>0.1564089131511597</v>
+        <v>0.06538987808273862</v>
       </c>
       <c r="AH84" t="n">
-        <v>0.03767045852215561</v>
+        <v>0.006531156947756532</v>
       </c>
       <c r="AI84" t="n">
-        <v>1.4224493238</v>
+        <v>0.5127636959000004</v>
       </c>
       <c r="AJ84" t="n">
-        <v>0.03125730056479163</v>
+        <v>0.01304091836364136</v>
       </c>
     </row>
     <row r="85">
@@ -11527,100 +11527,100 @@
         <v>8</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0149375377</v>
+        <v>0.01440538465976715</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0003947445</v>
+        <v>0.0003738876548595726</v>
       </c>
       <c r="G101" t="n">
-        <v>0.0747462809</v>
+        <v>0.07798340916633606</v>
       </c>
       <c r="H101" t="n">
-        <v>4.8341836929</v>
+        <v>4.814169406890869</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0179838203</v>
+        <v>0.01591269299387932</v>
       </c>
       <c r="J101" t="n">
-        <v>0.0006349931000000001</v>
+        <v>0.000558357045520097</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1144774556</v>
+        <v>0.1186398267745972</v>
       </c>
       <c r="L101" t="n">
-        <v>11.7399234772</v>
+        <v>9.355503082275391</v>
       </c>
       <c r="M101" t="n">
-        <v>0.0850891218170732</v>
+        <v>0.05915362770943151</v>
       </c>
       <c r="N101" t="n">
-        <v>0.01299364164991043</v>
+        <v>0.006526599734689333</v>
       </c>
       <c r="O101" t="n">
-        <v>0.3612976644000003</v>
+        <v>0.2721369681553938</v>
       </c>
       <c r="P101" t="n">
-        <v>0.01833147245375855</v>
+        <v>0.01286519525950252</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.1668934289378049</v>
+        <v>0.09817281067877234</v>
       </c>
       <c r="R101" t="n">
-        <v>0.03875805757757164</v>
+        <v>0.01687730679094691</v>
       </c>
       <c r="S101" t="n">
-        <v>0.5958407617999999</v>
+        <v>0.4514306335626799</v>
       </c>
       <c r="T101" t="n">
-        <v>0.03548550286765448</v>
+        <v>0.02115112275405023</v>
       </c>
       <c r="U101" t="n">
-        <v>0.09231442945000012</v>
+        <v>0.08525301029919741</v>
       </c>
       <c r="V101" t="n">
-        <v>0.01433559055448921</v>
+        <v>0.0130400233075679</v>
       </c>
       <c r="W101" t="n">
-        <v>0.3522676737000001</v>
+        <v>0.3696163106649237</v>
       </c>
       <c r="X101" t="n">
-        <v>0.01290846932472827</v>
+        <v>0.01139551327592378</v>
       </c>
       <c r="Y101" t="n">
-        <v>0.1112651719707318</v>
+        <v>0.09244007984237178</v>
       </c>
       <c r="Z101" t="n">
-        <v>0.01868076803955901</v>
+        <v>0.01466000334285711</v>
       </c>
       <c r="AA101" t="n">
-        <v>0.3399549372999999</v>
+        <v>0.3668570340914243</v>
       </c>
       <c r="AB101" t="n">
-        <v>0.01685763611260098</v>
+        <v>0.01251428034998048</v>
       </c>
       <c r="AC101" t="n">
-        <v>0.09509648178024085</v>
+        <v>0.06109331919969271</v>
       </c>
       <c r="AD101" t="n">
-        <v>0.01304023079702102</v>
+        <v>0.006274353455723718</v>
       </c>
       <c r="AE101" t="n">
-        <v>0.4342387200000006</v>
+        <v>0.3884237842881788</v>
       </c>
       <c r="AF101" t="n">
-        <v>0.01931717545988785</v>
+        <v>0.01233154227863219</v>
       </c>
       <c r="AG101" t="n">
-        <v>0.196782312364273</v>
+        <v>0.1025504762561141</v>
       </c>
       <c r="AH101" t="n">
-        <v>0.04299512849277277</v>
+        <v>0.01404820369320512</v>
       </c>
       <c r="AI101" t="n">
-        <v>0.5958407617999999</v>
+        <v>0.4514306335626799</v>
       </c>
       <c r="AJ101" t="n">
-        <v>0.04007667820252649</v>
+        <v>0.02083469792903089</v>
       </c>
     </row>
     <row r="102">
@@ -11639,100 +11639,100 @@
         <v>16</v>
       </c>
       <c r="E102" t="n">
-        <v>0.0154995974</v>
+        <v>0.01549959741532803</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0004345191</v>
+        <v>0.0004345190827734768</v>
       </c>
       <c r="G102" t="n">
-        <v>0.0853114128</v>
+        <v>0.0853114128112793</v>
       </c>
       <c r="H102" t="n">
-        <v>4.9974546432</v>
+        <v>4.997454643249512</v>
       </c>
       <c r="I102" t="n">
-        <v>0.0184220076</v>
+        <v>0.01842200756072998</v>
       </c>
       <c r="J102" t="n">
-        <v>0.0007836159000000001</v>
+        <v>0.000783615920227021</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1604972482</v>
+        <v>0.16049724817276</v>
       </c>
       <c r="L102" t="n">
-        <v>11.8239278793</v>
+        <v>11.8239278793335</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06663231493292684</v>
+        <v>0.06663231492829468</v>
       </c>
       <c r="N102" t="n">
-        <v>0.00851334125679864</v>
+        <v>0.008513341256497038</v>
       </c>
       <c r="O102" t="n">
-        <v>0.3402463692</v>
+        <v>0.3402463691935225</v>
       </c>
       <c r="P102" t="n">
-        <v>0.01443028645118541</v>
+        <v>0.01443028645048885</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.1241176943036585</v>
+        <v>0.1241176943006373</v>
       </c>
       <c r="R102" t="n">
-        <v>0.02841189005851809</v>
+        <v>0.02841189005731553</v>
       </c>
       <c r="S102" t="n">
-        <v>0.5527036647000001</v>
+        <v>0.552703664674425</v>
       </c>
       <c r="T102" t="n">
-        <v>0.02640544409770767</v>
+        <v>0.02640544409696568</v>
       </c>
       <c r="U102" t="n">
-        <v>0.08625344392195121</v>
+        <v>0.08625344392260105</v>
       </c>
       <c r="V102" t="n">
-        <v>0.0139320097215191</v>
+        <v>0.01393200972192716</v>
       </c>
       <c r="W102" t="n">
-        <v>0.3597827764999995</v>
+        <v>0.3597827764757255</v>
       </c>
       <c r="X102" t="n">
-        <v>0.01150208959692401</v>
+        <v>0.01150208959738881</v>
       </c>
       <c r="Y102" t="n">
-        <v>0.09152730199512199</v>
+        <v>0.09152730199896936</v>
       </c>
       <c r="Z102" t="n">
-        <v>0.01329532759735832</v>
+        <v>0.01329532759787065</v>
       </c>
       <c r="AA102" t="n">
-        <v>0.3256220064000015</v>
+        <v>0.3256220063390174</v>
       </c>
       <c r="AB102" t="n">
-        <v>0.01324407143093379</v>
+        <v>0.01324407143148397</v>
       </c>
       <c r="AC102" t="n">
-        <v>0.06527489757850133</v>
+        <v>0.0652748975780473</v>
       </c>
       <c r="AD102" t="n">
-        <v>0.007050843939180829</v>
+        <v>0.007050843939049586</v>
       </c>
       <c r="AE102" t="n">
-        <v>0.4005356420000004</v>
+        <v>0.4005356420635025</v>
       </c>
       <c r="AF102" t="n">
-        <v>0.01317936444525782</v>
+        <v>0.0131793644451842</v>
       </c>
       <c r="AG102" t="n">
-        <v>0.1281136767677074</v>
+        <v>0.1281136767688028</v>
       </c>
       <c r="AH102" t="n">
-        <v>0.02028937625778525</v>
+        <v>0.02028937625765649</v>
       </c>
       <c r="AI102" t="n">
-        <v>0.5527036647000001</v>
+        <v>0.552703664674425</v>
       </c>
       <c r="AJ102" t="n">
-        <v>0.02608270824983547</v>
+        <v>0.02608270825003102</v>
       </c>
     </row>
     <row r="103">
@@ -11751,100 +11751,100 @@
         <v>32</v>
       </c>
       <c r="E103" t="n">
-        <v>0.0140374601</v>
+        <v>0.01403746008872986</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0003790268</v>
+        <v>0.0003790267510339618</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0857108533</v>
+        <v>0.08571085333824158</v>
       </c>
       <c r="H103" t="n">
-        <v>4.8300228119</v>
+        <v>4.830022811889648</v>
       </c>
       <c r="I103" t="n">
-        <v>0.0170814227</v>
+        <v>0.01708142273128033</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0006916204</v>
+        <v>0.0006916204001754522</v>
       </c>
       <c r="K103" t="n">
-        <v>0.1549619436</v>
+        <v>0.1549619436264038</v>
       </c>
       <c r="L103" t="n">
-        <v>11.5959596634</v>
+        <v>11.59595966339111</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06491864798414634</v>
+        <v>0.06491864799111646</v>
       </c>
       <c r="N103" t="n">
-        <v>0.007467593329651057</v>
+        <v>0.007467593331338437</v>
       </c>
       <c r="O103" t="n">
-        <v>0.3212111676000005</v>
+        <v>0.3212111676727432</v>
       </c>
       <c r="P103" t="n">
-        <v>0.01406328301737482</v>
+        <v>0.01406328301889424</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.09168389294390245</v>
+        <v>0.09168389294880361</v>
       </c>
       <c r="R103" t="n">
-        <v>0.01900300146339255</v>
+        <v>0.01900300146427771</v>
       </c>
       <c r="S103" t="n">
-        <v>0.5392972967</v>
+        <v>0.5392972966697585</v>
       </c>
       <c r="T103" t="n">
-        <v>0.02022704755912543</v>
+        <v>0.0202270475601095</v>
       </c>
       <c r="U103" t="n">
-        <v>0.08466134196829272</v>
+        <v>0.08466134196231316</v>
       </c>
       <c r="V103" t="n">
-        <v>0.01368016800155651</v>
+        <v>0.01368016800183598</v>
       </c>
       <c r="W103" t="n">
-        <v>0.3673434254999997</v>
+        <v>0.3673434254164647</v>
       </c>
       <c r="X103" t="n">
-        <v>0.01126521048891775</v>
+        <v>0.01126521048853868</v>
       </c>
       <c r="Y103" t="n">
-        <v>0.08314139106219517</v>
+        <v>0.08314139107252304</v>
       </c>
       <c r="Z103" t="n">
-        <v>0.01356137543422224</v>
+        <v>0.013561375434606</v>
       </c>
       <c r="AA103" t="n">
-        <v>0.3460397572999998</v>
+        <v>0.3460397572965803</v>
       </c>
       <c r="AB103" t="n">
-        <v>0.01127862926865115</v>
+        <v>0.01127862927018618</v>
       </c>
       <c r="AC103" t="n">
-        <v>0.06042886806391615</v>
+        <v>0.06042886806371184</v>
       </c>
       <c r="AD103" t="n">
-        <v>0.00600936539764147</v>
+        <v>0.006009365397531844</v>
       </c>
       <c r="AE103" t="n">
-        <v>0.3673434254999997</v>
+        <v>0.3673434254164647</v>
       </c>
       <c r="AF103" t="n">
-        <v>0.01214438553788488</v>
+        <v>0.01214438553788297</v>
       </c>
       <c r="AG103" t="n">
-        <v>0.05234067576039251</v>
+        <v>0.0523406757606154</v>
       </c>
       <c r="AH103" t="n">
-        <v>0.00465536235409184</v>
+        <v>0.004655362354026553</v>
       </c>
       <c r="AI103" t="n">
-        <v>0.5392972967</v>
+        <v>0.5392972966697585</v>
       </c>
       <c r="AJ103" t="n">
-        <v>0.01051549576845678</v>
+        <v>0.01051549576850797</v>
       </c>
     </row>
     <row r="104">
@@ -11863,100 +11863,100 @@
         <v>64</v>
       </c>
       <c r="E104" t="n">
-        <v>0.0145996734</v>
+        <v>0.01459967344999313</v>
       </c>
       <c r="F104" t="n">
-        <v>0.0004076846</v>
+        <v>0.0004076845943927765</v>
       </c>
       <c r="G104" t="n">
-        <v>0.09533566240000001</v>
+        <v>0.09533566236495972</v>
       </c>
       <c r="H104" t="n">
-        <v>5.2475676537</v>
+        <v>5.247567653656006</v>
       </c>
       <c r="I104" t="n">
-        <v>0.015743874</v>
+        <v>0.01574387401342392</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0006210995</v>
+        <v>0.0006210994906723499</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1792427897</v>
+        <v>0.1792427897453308</v>
       </c>
       <c r="L104" t="n">
-        <v>11.6496620178</v>
+        <v>11.64966201782227</v>
       </c>
       <c r="M104" t="n">
-        <v>0.07100982314268293</v>
+        <v>0.07100982314274229</v>
       </c>
       <c r="N104" t="n">
-        <v>0.009341094421776977</v>
+        <v>0.00934109442221135</v>
       </c>
       <c r="O104" t="n">
-        <v>0.3848864540000001</v>
+        <v>0.3848864540841674</v>
       </c>
       <c r="P104" t="n">
-        <v>0.01536454647935512</v>
+        <v>0.01536454647940688</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.1199925470670731</v>
+        <v>0.1199925470646107</v>
       </c>
       <c r="R104" t="n">
-        <v>0.03392930782383805</v>
+        <v>0.0339293078228786</v>
       </c>
       <c r="S104" t="n">
-        <v>0.737968285</v>
+        <v>0.7379682849433351</v>
       </c>
       <c r="T104" t="n">
-        <v>0.02661440251476423</v>
+        <v>0.02661440251402771</v>
       </c>
       <c r="U104" t="n">
-        <v>0.09028626261097572</v>
+        <v>0.09028626261856061</v>
       </c>
       <c r="V104" t="n">
-        <v>0.01586119993467406</v>
+        <v>0.01586119993579108</v>
       </c>
       <c r="W104" t="n">
-        <v>0.3981281555000002</v>
+        <v>0.3981281554655425</v>
       </c>
       <c r="X104" t="n">
-        <v>0.01195515944355605</v>
+        <v>0.01195515944476314</v>
       </c>
       <c r="Y104" t="n">
-        <v>0.1250197122182927</v>
+        <v>0.1250197122216878</v>
       </c>
       <c r="Z104" t="n">
-        <v>0.02664590071513458</v>
+        <v>0.02664590071547796</v>
       </c>
       <c r="AA104" t="n">
-        <v>0.4552569762000003</v>
+        <v>0.455256976174141</v>
       </c>
       <c r="AB104" t="n">
-        <v>0.0164983821938871</v>
+        <v>0.01649838219426558</v>
       </c>
       <c r="AC104" t="n">
-        <v>0.06130358186636933</v>
+        <v>0.06130358186607146</v>
       </c>
       <c r="AD104" t="n">
-        <v>0.006268914067781601</v>
+        <v>0.006268914067729761</v>
       </c>
       <c r="AE104" t="n">
-        <v>0.3981281555000002</v>
+        <v>0.3981281554655425</v>
       </c>
       <c r="AF104" t="n">
-        <v>0.01231126911454699</v>
+        <v>0.0123112691144777</v>
       </c>
       <c r="AG104" t="n">
-        <v>0.05287882586311329</v>
+        <v>0.05287882586360546</v>
       </c>
       <c r="AH104" t="n">
-        <v>0.005505838323537967</v>
+        <v>0.005505838323526943</v>
       </c>
       <c r="AI104" t="n">
-        <v>0.737968285</v>
+        <v>0.7379682849433351</v>
       </c>
       <c r="AJ104" t="n">
-        <v>0.01054179245831341</v>
+        <v>0.01054179245839893</v>
       </c>
     </row>
     <row r="105">
@@ -11975,100 +11975,100 @@
         <v>96</v>
       </c>
       <c r="E105" t="n">
-        <v>0.0167297628</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="F105" t="n">
-        <v>0.0005973636</v>
+        <v>0.0005973635707050562</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1286326647</v>
+        <v>0.128632664680481</v>
       </c>
       <c r="H105" t="n">
-        <v>5.5760478973</v>
+        <v>5.576047897338867</v>
       </c>
       <c r="I105" t="n">
-        <v>0.0202691611</v>
+        <v>0.02026916109025478</v>
       </c>
       <c r="J105" t="n">
-        <v>0.0012247913</v>
+        <v>0.001224791281856596</v>
       </c>
       <c r="K105" t="n">
-        <v>0.21361655</v>
+        <v>0.2136165499687195</v>
       </c>
       <c r="L105" t="n">
-        <v>15.4487743378</v>
+        <v>15.44877433776855</v>
       </c>
       <c r="M105" t="n">
-        <v>0.07884697447926826</v>
+        <v>0.07884697447686068</v>
       </c>
       <c r="N105" t="n">
-        <v>0.01287685121707795</v>
+        <v>0.01287685121621131</v>
       </c>
       <c r="O105" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="P105" t="n">
-        <v>0.01728747946151816</v>
+        <v>0.0172874794609863</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.1605079840719512</v>
+        <v>0.1605079840712832</v>
       </c>
       <c r="R105" t="n">
-        <v>0.05023175888492717</v>
+        <v>0.05023175888311127</v>
       </c>
       <c r="S105" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="T105" t="n">
-        <v>0.03596477612957339</v>
+        <v>0.0359647761295875</v>
       </c>
       <c r="U105" t="n">
-        <v>0.08716595563780488</v>
+        <v>0.08716595563884409</v>
       </c>
       <c r="V105" t="n">
-        <v>0.01496847207208757</v>
+        <v>0.01496847207211584</v>
       </c>
       <c r="W105" t="n">
-        <v>0.3835942318000001</v>
+        <v>0.3835942318235954</v>
       </c>
       <c r="X105" t="n">
-        <v>0.01165184235036939</v>
+        <v>0.01165184235061203</v>
       </c>
       <c r="Y105" t="n">
-        <v>0.1450732816231708</v>
+        <v>0.1450732816236311</v>
       </c>
       <c r="Z105" t="n">
-        <v>0.04473400243247172</v>
+        <v>0.04473400242859393</v>
       </c>
       <c r="AA105" t="n">
-        <v>0.5925138695000003</v>
+        <v>0.5925138694909009</v>
       </c>
       <c r="AB105" t="n">
-        <v>0.02001947179550313</v>
+        <v>0.02001947179562555</v>
       </c>
       <c r="AC105" t="n">
-        <v>0.05838804765240856</v>
+        <v>0.05838804765073896</v>
       </c>
       <c r="AD105" t="n">
-        <v>0.005924379451383016</v>
+        <v>0.005924379451146375</v>
       </c>
       <c r="AE105" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="AF105" t="n">
-        <v>0.01177094123307892</v>
+        <v>0.01177094123273964</v>
       </c>
       <c r="AG105" t="n">
-        <v>0.09451444798247101</v>
+        <v>0.0945144479825465</v>
       </c>
       <c r="AH105" t="n">
-        <v>0.01382347862002063</v>
+        <v>0.01382347861959576</v>
       </c>
       <c r="AI105" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="AJ105" t="n">
-        <v>0.01915437010977085</v>
+        <v>0.01915437010979304</v>
       </c>
     </row>
     <row r="106">
@@ -12087,100 +12087,100 @@
         <v>128</v>
       </c>
       <c r="E106" t="n">
-        <v>0.0167297628</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0005973636</v>
+        <v>0.0005973635707050562</v>
       </c>
       <c r="G106" t="n">
-        <v>0.1286326647</v>
+        <v>0.128632664680481</v>
       </c>
       <c r="H106" t="n">
-        <v>5.5760478973</v>
+        <v>5.576047897338867</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0202691611</v>
+        <v>0.02026916109025478</v>
       </c>
       <c r="J106" t="n">
-        <v>0.0012247913</v>
+        <v>0.001224791281856596</v>
       </c>
       <c r="K106" t="n">
-        <v>0.21361655</v>
+        <v>0.2136165499687195</v>
       </c>
       <c r="L106" t="n">
-        <v>15.4487743378</v>
+        <v>15.44877433776855</v>
       </c>
       <c r="M106" t="n">
-        <v>0.07884697447926826</v>
+        <v>0.07884697447686068</v>
       </c>
       <c r="N106" t="n">
-        <v>0.01287685121707795</v>
+        <v>0.01287685121621131</v>
       </c>
       <c r="O106" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="P106" t="n">
-        <v>0.01728747946151816</v>
+        <v>0.0172874794609863</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.1605079840719512</v>
+        <v>0.1605079840712832</v>
       </c>
       <c r="R106" t="n">
-        <v>0.05023175888492717</v>
+        <v>0.05023175888311127</v>
       </c>
       <c r="S106" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="T106" t="n">
-        <v>0.03596477612957339</v>
+        <v>0.0359647761295875</v>
       </c>
       <c r="U106" t="n">
-        <v>0.08716595563780488</v>
+        <v>0.08716595563884409</v>
       </c>
       <c r="V106" t="n">
-        <v>0.01496847207208757</v>
+        <v>0.01496847207211584</v>
       </c>
       <c r="W106" t="n">
-        <v>0.3835942318000001</v>
+        <v>0.3835942318235954</v>
       </c>
       <c r="X106" t="n">
-        <v>0.01165184235036939</v>
+        <v>0.01165184235061203</v>
       </c>
       <c r="Y106" t="n">
-        <v>0.1450732816231708</v>
+        <v>0.1450732816236311</v>
       </c>
       <c r="Z106" t="n">
-        <v>0.04473400243247172</v>
+        <v>0.04473400242859393</v>
       </c>
       <c r="AA106" t="n">
-        <v>0.5925138695000003</v>
+        <v>0.5925138694909009</v>
       </c>
       <c r="AB106" t="n">
-        <v>0.02001947179550313</v>
+        <v>0.02001947179562555</v>
       </c>
       <c r="AC106" t="n">
-        <v>0.05838804765240856</v>
+        <v>0.05838804765073896</v>
       </c>
       <c r="AD106" t="n">
-        <v>0.005924379451383016</v>
+        <v>0.005924379451146375</v>
       </c>
       <c r="AE106" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="AF106" t="n">
-        <v>0.01177094123307892</v>
+        <v>0.01177094123273964</v>
       </c>
       <c r="AG106" t="n">
-        <v>0.09451444798247101</v>
+        <v>0.0945144479825465</v>
       </c>
       <c r="AH106" t="n">
-        <v>0.01382347862002063</v>
+        <v>0.01382347861959576</v>
       </c>
       <c r="AI106" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="AJ106" t="n">
-        <v>0.01915437010977085</v>
+        <v>0.01915437010979304</v>
       </c>
     </row>
     <row r="107">
@@ -12199,100 +12199,100 @@
         <v>160</v>
       </c>
       <c r="E107" t="n">
-        <v>0.0167297628</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="F107" t="n">
-        <v>0.0005973636</v>
+        <v>0.0005973635707050562</v>
       </c>
       <c r="G107" t="n">
-        <v>0.1286326647</v>
+        <v>0.128632664680481</v>
       </c>
       <c r="H107" t="n">
-        <v>5.5760478973</v>
+        <v>5.576047897338867</v>
       </c>
       <c r="I107" t="n">
-        <v>0.0202691611</v>
+        <v>0.02026916109025478</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0012247913</v>
+        <v>0.001224791281856596</v>
       </c>
       <c r="K107" t="n">
-        <v>0.21361655</v>
+        <v>0.2136165499687195</v>
       </c>
       <c r="L107" t="n">
-        <v>15.4487743378</v>
+        <v>15.44877433776855</v>
       </c>
       <c r="M107" t="n">
-        <v>0.07884697447926826</v>
+        <v>0.07884697447686068</v>
       </c>
       <c r="N107" t="n">
-        <v>0.01287685121707795</v>
+        <v>0.01287685121621131</v>
       </c>
       <c r="O107" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="P107" t="n">
-        <v>0.01728747946151816</v>
+        <v>0.0172874794609863</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.1605079840719512</v>
+        <v>0.1605079840712832</v>
       </c>
       <c r="R107" t="n">
-        <v>0.05023175888492717</v>
+        <v>0.05023175888311127</v>
       </c>
       <c r="S107" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="T107" t="n">
-        <v>0.03596477612957339</v>
+        <v>0.0359647761295875</v>
       </c>
       <c r="U107" t="n">
-        <v>0.08716595563780488</v>
+        <v>0.08716595563884409</v>
       </c>
       <c r="V107" t="n">
-        <v>0.01496847207208757</v>
+        <v>0.01496847207211584</v>
       </c>
       <c r="W107" t="n">
-        <v>0.3835942318000001</v>
+        <v>0.3835942318235954</v>
       </c>
       <c r="X107" t="n">
-        <v>0.01165184235036939</v>
+        <v>0.01165184235061203</v>
       </c>
       <c r="Y107" t="n">
-        <v>0.1450732816231708</v>
+        <v>0.1450732816236311</v>
       </c>
       <c r="Z107" t="n">
-        <v>0.04473400243247172</v>
+        <v>0.04473400242859393</v>
       </c>
       <c r="AA107" t="n">
-        <v>0.5925138695000003</v>
+        <v>0.5925138694909009</v>
       </c>
       <c r="AB107" t="n">
-        <v>0.02001947179550313</v>
+        <v>0.02001947179562555</v>
       </c>
       <c r="AC107" t="n">
-        <v>0.05838804765240856</v>
+        <v>0.05838804765073896</v>
       </c>
       <c r="AD107" t="n">
-        <v>0.005924379451383016</v>
+        <v>0.005924379451146375</v>
       </c>
       <c r="AE107" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="AF107" t="n">
-        <v>0.01177094123307892</v>
+        <v>0.01177094123273964</v>
       </c>
       <c r="AG107" t="n">
-        <v>0.09451444798247101</v>
+        <v>0.0945144479825465</v>
       </c>
       <c r="AH107" t="n">
-        <v>0.01382347862002063</v>
+        <v>0.01382347861959576</v>
       </c>
       <c r="AI107" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="AJ107" t="n">
-        <v>0.01915437010977085</v>
+        <v>0.01915437010979304</v>
       </c>
     </row>
     <row r="108">
@@ -12311,100 +12311,100 @@
         <v>192</v>
       </c>
       <c r="E108" t="n">
-        <v>0.0167297628</v>
+        <v>0.01672976277768612</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0005973636</v>
+        <v>0.0005973635707050562</v>
       </c>
       <c r="G108" t="n">
-        <v>0.1286326647</v>
+        <v>0.128632664680481</v>
       </c>
       <c r="H108" t="n">
-        <v>5.5760478973</v>
+        <v>5.576047897338867</v>
       </c>
       <c r="I108" t="n">
-        <v>0.0202691611</v>
+        <v>0.02026916109025478</v>
       </c>
       <c r="J108" t="n">
-        <v>0.0012247913</v>
+        <v>0.001224791281856596</v>
       </c>
       <c r="K108" t="n">
-        <v>0.21361655</v>
+        <v>0.2136165499687195</v>
       </c>
       <c r="L108" t="n">
-        <v>15.4487743378</v>
+        <v>15.44877433776855</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07884697447926826</v>
+        <v>0.07884697447686068</v>
       </c>
       <c r="N108" t="n">
-        <v>0.01287685121707795</v>
+        <v>0.01287685121621131</v>
       </c>
       <c r="O108" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="P108" t="n">
-        <v>0.01728747946151816</v>
+        <v>0.0172874794609863</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.1605079840719512</v>
+        <v>0.1605079840712832</v>
       </c>
       <c r="R108" t="n">
-        <v>0.05023175888492717</v>
+        <v>0.05023175888311127</v>
       </c>
       <c r="S108" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="T108" t="n">
-        <v>0.03596477612957339</v>
+        <v>0.0359647761295875</v>
       </c>
       <c r="U108" t="n">
-        <v>0.08716595563780488</v>
+        <v>0.08716595563884409</v>
       </c>
       <c r="V108" t="n">
-        <v>0.01496847207208757</v>
+        <v>0.01496847207211584</v>
       </c>
       <c r="W108" t="n">
-        <v>0.3835942318000001</v>
+        <v>0.3835942318235954</v>
       </c>
       <c r="X108" t="n">
-        <v>0.01165184235036939</v>
+        <v>0.01165184235061203</v>
       </c>
       <c r="Y108" t="n">
-        <v>0.1450732816231708</v>
+        <v>0.1450732816236311</v>
       </c>
       <c r="Z108" t="n">
-        <v>0.04473400243247172</v>
+        <v>0.04473400242859393</v>
       </c>
       <c r="AA108" t="n">
-        <v>0.5925138695000003</v>
+        <v>0.5925138694909009</v>
       </c>
       <c r="AB108" t="n">
-        <v>0.02001947179550313</v>
+        <v>0.02001947179562555</v>
       </c>
       <c r="AC108" t="n">
-        <v>0.05838804765240856</v>
+        <v>0.05838804765073896</v>
       </c>
       <c r="AD108" t="n">
-        <v>0.005924379451383016</v>
+        <v>0.005924379451146375</v>
       </c>
       <c r="AE108" t="n">
-        <v>0.4114982796</v>
+        <v>0.411498279662581</v>
       </c>
       <c r="AF108" t="n">
-        <v>0.01177094123307892</v>
+        <v>0.01177094123273964</v>
       </c>
       <c r="AG108" t="n">
-        <v>0.09451444798247101</v>
+        <v>0.0945144479825465</v>
       </c>
       <c r="AH108" t="n">
-        <v>0.01382347862002063</v>
+        <v>0.01382347861959576</v>
       </c>
       <c r="AI108" t="n">
-        <v>0.7139985288000004</v>
+        <v>0.7139985287608255</v>
       </c>
       <c r="AJ108" t="n">
-        <v>0.01915437010977085</v>
+        <v>0.01915437010979304</v>
       </c>
     </row>
     <row r="109">
@@ -12423,100 +12423,100 @@
         <v>8</v>
       </c>
       <c r="E109" t="n">
-        <v>0.0133731663</v>
+        <v>0.01337316632270813</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0003297038</v>
+        <v>0.0003297038492746651</v>
       </c>
       <c r="G109" t="n">
-        <v>0.0705084503</v>
+        <v>0.0705084502696991</v>
       </c>
       <c r="H109" t="n">
-        <v>4.4728221893</v>
+        <v>4.472822189331055</v>
       </c>
       <c r="I109" t="n">
-        <v>0.0161092225</v>
+        <v>0.01610922254621983</v>
       </c>
       <c r="J109" t="n">
-        <v>0.0006258641</v>
+        <v>0.0006258641369640827</v>
       </c>
       <c r="K109" t="n">
-        <v>0.1149213836</v>
+        <v>0.1149213835597038</v>
       </c>
       <c r="L109" t="n">
-        <v>10.9547586441</v>
+        <v>10.954758644104</v>
       </c>
       <c r="M109" t="n">
-        <v>0.06415445413414639</v>
+        <v>0.06415445413197338</v>
       </c>
       <c r="N109" t="n">
-        <v>0.009447591003532249</v>
+        <v>0.009447591003709748</v>
       </c>
       <c r="O109" t="n">
-        <v>0.3654688038000007</v>
+        <v>0.3654688038412957</v>
       </c>
       <c r="P109" t="n">
-        <v>0.01394420989173954</v>
+        <v>0.01394420989125365</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.08755110862560975</v>
+        <v>0.08755110862919062</v>
       </c>
       <c r="R109" t="n">
-        <v>0.01657376566824368</v>
+        <v>0.01657376566967881</v>
       </c>
       <c r="S109" t="n">
-        <v>0.4652860927000004</v>
+        <v>0.4652860927473768</v>
       </c>
       <c r="T109" t="n">
-        <v>0.01870106548129746</v>
+        <v>0.01870106548192262</v>
       </c>
       <c r="U109" t="n">
-        <v>0.08445336057439033</v>
+        <v>0.08445336057550232</v>
       </c>
       <c r="V109" t="n">
-        <v>0.01290300276117084</v>
+        <v>0.01290300276046607</v>
       </c>
       <c r="W109" t="n">
-        <v>0.3747249492000009</v>
+        <v>0.3747249491103162</v>
       </c>
       <c r="X109" t="n">
-        <v>0.01134586664973289</v>
+        <v>0.01134586665004292</v>
       </c>
       <c r="Y109" t="n">
-        <v>0.09477315330731707</v>
+        <v>0.09477315330648393</v>
       </c>
       <c r="Z109" t="n">
-        <v>0.0157270575948812</v>
+        <v>0.01572705759387058</v>
       </c>
       <c r="AA109" t="n">
-        <v>0.3871012461000003</v>
+        <v>0.3871012460546694</v>
       </c>
       <c r="AB109" t="n">
-        <v>0.01281672030241196</v>
+        <v>0.01281672030253679</v>
       </c>
       <c r="AC109" t="n">
-        <v>0.06429464883345229</v>
+        <v>0.06429464883189195</v>
       </c>
       <c r="AD109" t="n">
-        <v>0.006999984484719411</v>
+        <v>0.006999984484625629</v>
       </c>
       <c r="AE109" t="n">
-        <v>0.3788710042000005</v>
+        <v>0.3788710042810095</v>
       </c>
       <c r="AF109" t="n">
-        <v>0.0130101605764533</v>
+        <v>0.01301016057613373</v>
       </c>
       <c r="AG109" t="n">
-        <v>0.0944586315177966</v>
+        <v>0.09445863151670565</v>
       </c>
       <c r="AH109" t="n">
-        <v>0.01260291486900789</v>
+        <v>0.01260291486871072</v>
       </c>
       <c r="AI109" t="n">
-        <v>0.4652860927000004</v>
+        <v>0.4652860927473768</v>
       </c>
       <c r="AJ109" t="n">
-        <v>0.01916497242161748</v>
+        <v>0.01916497242138997</v>
       </c>
     </row>
     <row r="110">
@@ -12535,100 +12535,100 @@
         <v>16</v>
       </c>
       <c r="E110" t="n">
-        <v>0.0139779011</v>
+        <v>0.01397790107876062</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0003359989</v>
+        <v>0.0003359989495947957</v>
       </c>
       <c r="G110" t="n">
-        <v>0.075173974</v>
+        <v>0.07517397403717041</v>
       </c>
       <c r="H110" t="n">
-        <v>4.9695177078</v>
+        <v>4.969517707824707</v>
       </c>
       <c r="I110" t="n">
-        <v>0.0161040276</v>
+        <v>0.01610402762889862</v>
       </c>
       <c r="J110" t="n">
-        <v>0.0006301728</v>
+        <v>0.0006301727844402194</v>
       </c>
       <c r="K110" t="n">
-        <v>0.1184016466</v>
+        <v>0.1184016466140747</v>
       </c>
       <c r="L110" t="n">
-        <v>9.908004760700001</v>
+        <v>9.908004760742188</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07157405669756102</v>
+        <v>0.07157405670276351</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0121253960272955</v>
+        <v>0.01212539602925208</v>
       </c>
       <c r="O110" t="n">
-        <v>0.4355399807999998</v>
+        <v>0.4355399808494553</v>
       </c>
       <c r="P110" t="n">
-        <v>0.01549018929571357</v>
+        <v>0.01549018929677289</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.1506148589512195</v>
+        <v>0.1506148589472821</v>
       </c>
       <c r="R110" t="n">
-        <v>0.03448037149367015</v>
+        <v>0.03448037149267898</v>
       </c>
       <c r="S110" t="n">
-        <v>0.5616407557</v>
+        <v>0.56164075569734</v>
       </c>
       <c r="T110" t="n">
-        <v>0.03165386657730296</v>
+        <v>0.03165386657650122</v>
       </c>
       <c r="U110" t="n">
-        <v>0.08777192008902443</v>
+        <v>0.08777192009466926</v>
       </c>
       <c r="V110" t="n">
-        <v>0.01364131792583653</v>
+        <v>0.01364131792553938</v>
       </c>
       <c r="W110" t="n">
-        <v>0.3737106992000001</v>
+        <v>0.373710699135529</v>
       </c>
       <c r="X110" t="n">
-        <v>0.011970208186411</v>
+        <v>0.01197020818717744</v>
       </c>
       <c r="Y110" t="n">
-        <v>0.1103958587743903</v>
+        <v>0.1103958587785052</v>
       </c>
       <c r="Z110" t="n">
-        <v>0.0194845833073459</v>
+        <v>0.0194845833082794</v>
       </c>
       <c r="AA110" t="n">
-        <v>0.3882851041999995</v>
+        <v>0.3882851041854281</v>
       </c>
       <c r="AB110" t="n">
-        <v>0.01575385190145025</v>
+        <v>0.01575385190206435</v>
       </c>
       <c r="AC110" t="n">
-        <v>0.07207966997943802</v>
+        <v>0.07207966997916126</v>
       </c>
       <c r="AD110" t="n">
-        <v>0.008488644754515447</v>
+        <v>0.008488644754416566</v>
       </c>
       <c r="AE110" t="n">
-        <v>0.4355399807999998</v>
+        <v>0.4355399808494553</v>
       </c>
       <c r="AF110" t="n">
-        <v>0.01460684574484733</v>
+        <v>0.0146068457447693</v>
       </c>
       <c r="AG110" t="n">
-        <v>0.1744365563063336</v>
+        <v>0.174436556305021</v>
       </c>
       <c r="AH110" t="n">
-        <v>0.03476509457982645</v>
+        <v>0.03476509457924049</v>
       </c>
       <c r="AI110" t="n">
-        <v>0.5616407557</v>
+        <v>0.56164075569734</v>
       </c>
       <c r="AJ110" t="n">
-        <v>0.03546868867840823</v>
+        <v>0.03546868867813353</v>
       </c>
     </row>
     <row r="111">
@@ -12647,100 +12647,100 @@
         <v>32</v>
       </c>
       <c r="E111" t="n">
-        <v>0.0163849667</v>
+        <v>0.01638496667146683</v>
       </c>
       <c r="F111" t="n">
-        <v>0.0005284802</v>
+        <v>0.0005284801591187716</v>
       </c>
       <c r="G111" t="n">
-        <v>0.09841564300000001</v>
+        <v>0.09841564297676086</v>
       </c>
       <c r="H111" t="n">
-        <v>5.693295002</v>
+        <v>5.693295001983643</v>
       </c>
       <c r="I111" t="n">
-        <v>0.0160490219</v>
+        <v>0.01604902185499668</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0007151701</v>
+        <v>0.0007151700556278229</v>
       </c>
       <c r="K111" t="n">
-        <v>0.184238553</v>
+        <v>0.1842385530471802</v>
       </c>
       <c r="L111" t="n">
-        <v>9.3313589096</v>
+        <v>9.331358909606934</v>
       </c>
       <c r="M111" t="n">
-        <v>0.0881262297195122</v>
+        <v>0.08812622971335458</v>
       </c>
       <c r="N111" t="n">
-        <v>0.01457367738365684</v>
+        <v>0.01457367738234882</v>
       </c>
       <c r="O111" t="n">
-        <v>0.4559204911000005</v>
+        <v>0.4559204911504651</v>
       </c>
       <c r="P111" t="n">
-        <v>0.01888170995468788</v>
+        <v>0.01888170995338849</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.2029846950658536</v>
+        <v>0.2029846950668238</v>
       </c>
       <c r="R111" t="n">
-        <v>0.06804415368449082</v>
+        <v>0.06804415368597225</v>
       </c>
       <c r="S111" t="n">
-        <v>0.8445926571999998</v>
+        <v>0.8445926572105691</v>
       </c>
       <c r="T111" t="n">
-        <v>0.04271872389051809</v>
+        <v>0.04271872389057526</v>
       </c>
       <c r="U111" t="n">
-        <v>0.09569090934634153</v>
+        <v>0.09569090933863611</v>
       </c>
       <c r="V111" t="n">
-        <v>0.01560611036541783</v>
+        <v>0.01560611036443903</v>
       </c>
       <c r="W111" t="n">
-        <v>0.3696649158999996</v>
+        <v>0.3696649158078174</v>
       </c>
       <c r="X111" t="n">
-        <v>0.0132350432770909</v>
+        <v>0.01323504327620083</v>
       </c>
       <c r="Y111" t="n">
-        <v>0.1404023907012195</v>
+        <v>0.1404023907115467</v>
       </c>
       <c r="Z111" t="n">
-        <v>0.03097439142080136</v>
+        <v>0.03097439142354138</v>
       </c>
       <c r="AA111" t="n">
-        <v>0.5054114103000007</v>
+        <v>0.505411410214208</v>
       </c>
       <c r="AB111" t="n">
-        <v>0.02091202943279954</v>
+        <v>0.02091202943410407</v>
       </c>
       <c r="AC111" t="n">
-        <v>0.0894850910205174</v>
+        <v>0.08948509101872841</v>
       </c>
       <c r="AD111" t="n">
-        <v>0.01192189727920072</v>
+        <v>0.01192189727892711</v>
       </c>
       <c r="AE111" t="n">
-        <v>0.4559204911000005</v>
+        <v>0.4559204911504651</v>
       </c>
       <c r="AF111" t="n">
-        <v>0.01815295332705855</v>
+        <v>0.01815295332671084</v>
       </c>
       <c r="AG111" t="n">
-        <v>0.2380534174788582</v>
+        <v>0.2380534174787363</v>
       </c>
       <c r="AH111" t="n">
-        <v>0.06174187918323878</v>
+        <v>0.06174187918300145</v>
       </c>
       <c r="AI111" t="n">
-        <v>0.8445926571999998</v>
+        <v>0.8445926572105691</v>
       </c>
       <c r="AJ111" t="n">
-        <v>0.04841456807692084</v>
+        <v>0.04841456807686287</v>
       </c>
     </row>
     <row r="112">
@@ -12759,100 +12759,100 @@
         <v>64</v>
       </c>
       <c r="E112" t="n">
-        <v>0.016128419</v>
+        <v>0.0161284189671278</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0004814806</v>
+        <v>0.0004814805870410055</v>
       </c>
       <c r="G112" t="n">
-        <v>0.1197805703</v>
+        <v>0.119780570268631</v>
       </c>
       <c r="H112" t="n">
-        <v>5.509534359</v>
+        <v>5.509534358978271</v>
       </c>
       <c r="I112" t="n">
-        <v>0.0144391786</v>
+        <v>0.01443917863070965</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0006140807000000001</v>
+        <v>0.0006140806945040822</v>
       </c>
       <c r="K112" t="n">
-        <v>0.1911295056</v>
+        <v>0.1911295056343079</v>
       </c>
       <c r="L112" t="n">
-        <v>9.399444580100001</v>
+        <v>9.399444580078125</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07191870340487812</v>
+        <v>0.07191870340402418</v>
       </c>
       <c r="N112" t="n">
-        <v>0.01063194548510473</v>
+        <v>0.01063194548461023</v>
       </c>
       <c r="O112" t="n">
-        <v>0.4169213220000003</v>
+        <v>0.4169213220043133</v>
       </c>
       <c r="P112" t="n">
-        <v>0.01559925568005462</v>
+        <v>0.01559925567961069</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.1315974205902438</v>
+        <v>0.1315974205889689</v>
       </c>
       <c r="R112" t="n">
-        <v>0.03663160688774393</v>
+        <v>0.03663160688657306</v>
       </c>
       <c r="S112" t="n">
-        <v>0.7171078413999998</v>
+        <v>0.7171078413432639</v>
       </c>
       <c r="T112" t="n">
-        <v>0.02844434085103505</v>
+        <v>0.02844434085061892</v>
       </c>
       <c r="U112" t="n">
-        <v>0.09218469841219515</v>
+        <v>0.09218469841365902</v>
       </c>
       <c r="V112" t="n">
-        <v>0.01536120270331543</v>
+        <v>0.01536120270372333</v>
       </c>
       <c r="W112" t="n">
-        <v>0.3627195126</v>
+        <v>0.3627195125871499</v>
       </c>
       <c r="X112" t="n">
-        <v>0.01222886000875593</v>
+        <v>0.01222886000918384</v>
       </c>
       <c r="Y112" t="n">
-        <v>0.129228602385366</v>
+        <v>0.1292286023869054</v>
       </c>
       <c r="Z112" t="n">
-        <v>0.03237733123002926</v>
+        <v>0.03237733122898379</v>
       </c>
       <c r="AA112" t="n">
-        <v>0.6193150134000014</v>
+        <v>0.619315013364627</v>
       </c>
       <c r="AB112" t="n">
-        <v>0.01761379325005694</v>
+        <v>0.01761379325041571</v>
       </c>
       <c r="AC112" t="n">
-        <v>0.06214801837876895</v>
+        <v>0.06214801837723533</v>
       </c>
       <c r="AD112" t="n">
-        <v>0.00661116642763351</v>
+        <v>0.006611166427372563</v>
       </c>
       <c r="AE112" t="n">
-        <v>0.4169213220000003</v>
+        <v>0.4169213220043133</v>
       </c>
       <c r="AF112" t="n">
-        <v>0.01253279821558685</v>
+        <v>0.01253279821526487</v>
       </c>
       <c r="AG112" t="n">
-        <v>0.1184550346295272</v>
+        <v>0.1184550346287221</v>
       </c>
       <c r="AH112" t="n">
-        <v>0.018418063699014</v>
+        <v>0.01841806369843759</v>
       </c>
       <c r="AI112" t="n">
-        <v>0.7171078413999998</v>
+        <v>0.7171078413432639</v>
       </c>
       <c r="AJ112" t="n">
-        <v>0.02401066853819914</v>
+        <v>0.02401066853803818</v>
       </c>
     </row>
     <row r="113">
@@ -12871,100 +12871,100 @@
         <v>96</v>
       </c>
       <c r="E113" t="n">
-        <v>0.0156009421</v>
+        <v>0.01560094207525253</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0004608427</v>
+        <v>0.0004608427407220006</v>
       </c>
       <c r="G113" t="n">
-        <v>0.1043666601</v>
+        <v>0.104366660118103</v>
       </c>
       <c r="H113" t="n">
-        <v>5.124080658</v>
+        <v>5.124080657958984</v>
       </c>
       <c r="I113" t="n">
-        <v>0.0176935457</v>
+        <v>0.01769354566931725</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0008234218</v>
+        <v>0.0008234218112193048</v>
       </c>
       <c r="K113" t="n">
-        <v>0.1814232469</v>
+        <v>0.1814232468605042</v>
       </c>
       <c r="L113" t="n">
-        <v>10.2919788361</v>
+        <v>10.29197883605957</v>
       </c>
       <c r="M113" t="n">
-        <v>0.06972812875365858</v>
+        <v>0.06972812874863166</v>
       </c>
       <c r="N113" t="n">
-        <v>0.009771366216927322</v>
+        <v>0.009771366216836512</v>
       </c>
       <c r="O113" t="n">
-        <v>0.3854595189000003</v>
+        <v>0.3854595189157664</v>
       </c>
       <c r="P113" t="n">
-        <v>0.01503062334450237</v>
+        <v>0.01503062334342255</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.1619167213865854</v>
+        <v>0.1619167213833106</v>
       </c>
       <c r="R113" t="n">
-        <v>0.04686884186375229</v>
+        <v>0.04686884186255702</v>
       </c>
       <c r="S113" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="T113" t="n">
-        <v>0.0337516858674537</v>
+        <v>0.03375168586663226</v>
       </c>
       <c r="U113" t="n">
-        <v>0.0889451892963415</v>
+        <v>0.08894518929306425</v>
       </c>
       <c r="V113" t="n">
-        <v>0.01562274248830209</v>
+        <v>0.01562274248793018</v>
       </c>
       <c r="W113" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="X113" t="n">
-        <v>0.01176639508611495</v>
+        <v>0.0117663950857959</v>
       </c>
       <c r="Y113" t="n">
-        <v>0.1653723568646341</v>
+        <v>0.1653723568592575</v>
       </c>
       <c r="Z113" t="n">
-        <v>0.0373465119626022</v>
+        <v>0.03734651196045108</v>
       </c>
       <c r="AA113" t="n">
-        <v>0.5037117817999999</v>
+        <v>0.5037117817785486</v>
       </c>
       <c r="AB113" t="n">
-        <v>0.0217546209504547</v>
+        <v>0.02175462094984761</v>
       </c>
       <c r="AC113" t="n">
-        <v>0.06291572077720788</v>
+        <v>0.06291572077541022</v>
       </c>
       <c r="AD113" t="n">
-        <v>0.006713161657863249</v>
+        <v>0.006713161657623964</v>
       </c>
       <c r="AE113" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="AF113" t="n">
-        <v>0.01268544531094559</v>
+        <v>0.01268544531058852</v>
       </c>
       <c r="AG113" t="n">
-        <v>0.1689132916342997</v>
+        <v>0.168913291633828</v>
       </c>
       <c r="AH113" t="n">
-        <v>0.03290246386808257</v>
+        <v>0.0329024638678106</v>
       </c>
       <c r="AI113" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="AJ113" t="n">
-        <v>0.03414821173065997</v>
+        <v>0.03414821173054348</v>
       </c>
     </row>
     <row r="114">
@@ -12983,100 +12983,100 @@
         <v>128</v>
       </c>
       <c r="E114" t="n">
-        <v>0.0156009421</v>
+        <v>0.01560094207525253</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0004608427</v>
+        <v>0.0004608427407220006</v>
       </c>
       <c r="G114" t="n">
-        <v>0.1043666601</v>
+        <v>0.104366660118103</v>
       </c>
       <c r="H114" t="n">
-        <v>5.124080658</v>
+        <v>5.124080657958984</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0176935457</v>
+        <v>0.01769354566931725</v>
       </c>
       <c r="J114" t="n">
-        <v>0.0008234218</v>
+        <v>0.0008234218112193048</v>
       </c>
       <c r="K114" t="n">
-        <v>0.1814232469</v>
+        <v>0.1814232468605042</v>
       </c>
       <c r="L114" t="n">
-        <v>10.2919788361</v>
+        <v>10.29197883605957</v>
       </c>
       <c r="M114" t="n">
-        <v>0.06972812875365858</v>
+        <v>0.06972812874863166</v>
       </c>
       <c r="N114" t="n">
-        <v>0.009771366216927322</v>
+        <v>0.009771366216836512</v>
       </c>
       <c r="O114" t="n">
-        <v>0.3854595189000003</v>
+        <v>0.3854595189157664</v>
       </c>
       <c r="P114" t="n">
-        <v>0.01503062334450237</v>
+        <v>0.01503062334342255</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.1619167213865854</v>
+        <v>0.1619167213833106</v>
       </c>
       <c r="R114" t="n">
-        <v>0.04686884186375229</v>
+        <v>0.04686884186255702</v>
       </c>
       <c r="S114" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="T114" t="n">
-        <v>0.0337516858674537</v>
+        <v>0.03375168586663226</v>
       </c>
       <c r="U114" t="n">
-        <v>0.0889451892963415</v>
+        <v>0.08894518929306425</v>
       </c>
       <c r="V114" t="n">
-        <v>0.01562274248830209</v>
+        <v>0.01562274248793018</v>
       </c>
       <c r="W114" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="X114" t="n">
-        <v>0.01176639508611495</v>
+        <v>0.0117663950857959</v>
       </c>
       <c r="Y114" t="n">
-        <v>0.1653723568646341</v>
+        <v>0.1653723568592575</v>
       </c>
       <c r="Z114" t="n">
-        <v>0.0373465119626022</v>
+        <v>0.03734651196045108</v>
       </c>
       <c r="AA114" t="n">
-        <v>0.5037117817999999</v>
+        <v>0.5037117817785486</v>
       </c>
       <c r="AB114" t="n">
-        <v>0.0217546209504547</v>
+        <v>0.02175462094984761</v>
       </c>
       <c r="AC114" t="n">
-        <v>0.06291572077720788</v>
+        <v>0.06291572077541022</v>
       </c>
       <c r="AD114" t="n">
-        <v>0.006713161657863249</v>
+        <v>0.006713161657623964</v>
       </c>
       <c r="AE114" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="AF114" t="n">
-        <v>0.01268544531094559</v>
+        <v>0.01268544531058852</v>
       </c>
       <c r="AG114" t="n">
-        <v>0.1689132916342997</v>
+        <v>0.168913291633828</v>
       </c>
       <c r="AH114" t="n">
-        <v>0.03290246386808257</v>
+        <v>0.0329024638678106</v>
       </c>
       <c r="AI114" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="AJ114" t="n">
-        <v>0.03414821173065997</v>
+        <v>0.03414821173054348</v>
       </c>
     </row>
     <row r="115">
@@ -13095,100 +13095,100 @@
         <v>160</v>
       </c>
       <c r="E115" t="n">
-        <v>0.0156009421</v>
+        <v>0.01560094207525253</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0004608427</v>
+        <v>0.0004608427407220006</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1043666601</v>
+        <v>0.104366660118103</v>
       </c>
       <c r="H115" t="n">
-        <v>5.124080658</v>
+        <v>5.124080657958984</v>
       </c>
       <c r="I115" t="n">
-        <v>0.0176935457</v>
+        <v>0.01769354566931725</v>
       </c>
       <c r="J115" t="n">
-        <v>0.0008234218</v>
+        <v>0.0008234218112193048</v>
       </c>
       <c r="K115" t="n">
-        <v>0.1814232469</v>
+        <v>0.1814232468605042</v>
       </c>
       <c r="L115" t="n">
-        <v>10.2919788361</v>
+        <v>10.29197883605957</v>
       </c>
       <c r="M115" t="n">
-        <v>0.06972812875365858</v>
+        <v>0.06972812874863166</v>
       </c>
       <c r="N115" t="n">
-        <v>0.009771366216927322</v>
+        <v>0.009771366216836512</v>
       </c>
       <c r="O115" t="n">
-        <v>0.3854595189000003</v>
+        <v>0.3854595189157664</v>
       </c>
       <c r="P115" t="n">
-        <v>0.01503062334450237</v>
+        <v>0.01503062334342255</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.1619167213865854</v>
+        <v>0.1619167213833106</v>
       </c>
       <c r="R115" t="n">
-        <v>0.04686884186375229</v>
+        <v>0.04686884186255702</v>
       </c>
       <c r="S115" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="T115" t="n">
-        <v>0.0337516858674537</v>
+        <v>0.03375168586663226</v>
       </c>
       <c r="U115" t="n">
-        <v>0.0889451892963415</v>
+        <v>0.08894518929306425</v>
       </c>
       <c r="V115" t="n">
-        <v>0.01562274248830209</v>
+        <v>0.01562274248793018</v>
       </c>
       <c r="W115" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="X115" t="n">
-        <v>0.01176639508611495</v>
+        <v>0.0117663950857959</v>
       </c>
       <c r="Y115" t="n">
-        <v>0.1653723568646341</v>
+        <v>0.1653723568592575</v>
       </c>
       <c r="Z115" t="n">
-        <v>0.0373465119626022</v>
+        <v>0.03734651196045108</v>
       </c>
       <c r="AA115" t="n">
-        <v>0.5037117817999999</v>
+        <v>0.5037117817785486</v>
       </c>
       <c r="AB115" t="n">
-        <v>0.0217546209504547</v>
+        <v>0.02175462094984761</v>
       </c>
       <c r="AC115" t="n">
-        <v>0.06291572077720788</v>
+        <v>0.06291572077541022</v>
       </c>
       <c r="AD115" t="n">
-        <v>0.006713161657863249</v>
+        <v>0.006713161657623964</v>
       </c>
       <c r="AE115" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="AF115" t="n">
-        <v>0.01268544531094559</v>
+        <v>0.01268544531058852</v>
       </c>
       <c r="AG115" t="n">
-        <v>0.1689132916342997</v>
+        <v>0.168913291633828</v>
       </c>
       <c r="AH115" t="n">
-        <v>0.03290246386808257</v>
+        <v>0.0329024638678106</v>
       </c>
       <c r="AI115" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="AJ115" t="n">
-        <v>0.03414821173065997</v>
+        <v>0.03414821173054348</v>
       </c>
     </row>
     <row r="116">
@@ -13207,100 +13207,100 @@
         <v>192</v>
       </c>
       <c r="E116" t="n">
-        <v>0.0156009421</v>
+        <v>0.01560094207525253</v>
       </c>
       <c r="F116" t="n">
-        <v>0.0004608427</v>
+        <v>0.0004608427407220006</v>
       </c>
       <c r="G116" t="n">
-        <v>0.1043666601</v>
+        <v>0.104366660118103</v>
       </c>
       <c r="H116" t="n">
-        <v>5.124080658</v>
+        <v>5.124080657958984</v>
       </c>
       <c r="I116" t="n">
-        <v>0.0176935457</v>
+        <v>0.01769354566931725</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0008234218</v>
+        <v>0.0008234218112193048</v>
       </c>
       <c r="K116" t="n">
-        <v>0.1814232469</v>
+        <v>0.1814232468605042</v>
       </c>
       <c r="L116" t="n">
-        <v>10.2919788361</v>
+        <v>10.29197883605957</v>
       </c>
       <c r="M116" t="n">
-        <v>0.06972812875365858</v>
+        <v>0.06972812874863166</v>
       </c>
       <c r="N116" t="n">
-        <v>0.009771366216927322</v>
+        <v>0.009771366216836512</v>
       </c>
       <c r="O116" t="n">
-        <v>0.3854595189000003</v>
+        <v>0.3854595189157664</v>
       </c>
       <c r="P116" t="n">
-        <v>0.01503062334450237</v>
+        <v>0.01503062334342255</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.1619167213865854</v>
+        <v>0.1619167213833106</v>
       </c>
       <c r="R116" t="n">
-        <v>0.04686884186375229</v>
+        <v>0.04686884186255702</v>
       </c>
       <c r="S116" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="T116" t="n">
-        <v>0.0337516858674537</v>
+        <v>0.03375168586663226</v>
       </c>
       <c r="U116" t="n">
-        <v>0.0889451892963415</v>
+        <v>0.08894518929306425</v>
       </c>
       <c r="V116" t="n">
-        <v>0.01562274248830209</v>
+        <v>0.01562274248793018</v>
       </c>
       <c r="W116" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="X116" t="n">
-        <v>0.01176639508611495</v>
+        <v>0.0117663950857959</v>
       </c>
       <c r="Y116" t="n">
-        <v>0.1653723568646341</v>
+        <v>0.1653723568592575</v>
       </c>
       <c r="Z116" t="n">
-        <v>0.0373465119626022</v>
+        <v>0.03734651196045108</v>
       </c>
       <c r="AA116" t="n">
-        <v>0.5037117817999999</v>
+        <v>0.5037117817785486</v>
       </c>
       <c r="AB116" t="n">
-        <v>0.0217546209504547</v>
+        <v>0.02175462094984761</v>
       </c>
       <c r="AC116" t="n">
-        <v>0.06291572077720788</v>
+        <v>0.06291572077541022</v>
       </c>
       <c r="AD116" t="n">
-        <v>0.006713161657863249</v>
+        <v>0.006713161657623964</v>
       </c>
       <c r="AE116" t="n">
-        <v>0.4059444062999997</v>
+        <v>0.4059444062766033</v>
       </c>
       <c r="AF116" t="n">
-        <v>0.01268544531094559</v>
+        <v>0.01268544531058852</v>
       </c>
       <c r="AG116" t="n">
-        <v>0.1689132916342997</v>
+        <v>0.168913291633828</v>
       </c>
       <c r="AH116" t="n">
-        <v>0.03290246386808257</v>
+        <v>0.0329024638678106</v>
       </c>
       <c r="AI116" t="n">
-        <v>0.7275798545000001</v>
+        <v>0.727579854447427</v>
       </c>
       <c r="AJ116" t="n">
-        <v>0.03414821173065997</v>
+        <v>0.03414821173054348</v>
       </c>
     </row>
     <row r="117">
@@ -13319,100 +13319,100 @@
         <v>8</v>
       </c>
       <c r="E117" t="n">
-        <v>0.0163979605</v>
+        <v>0.01639796048402786</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0004874809</v>
+        <v>0.0004874809237662703</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08975988630000001</v>
+        <v>0.08975988626480103</v>
       </c>
       <c r="H117" t="n">
-        <v>5.3523645401</v>
+        <v>5.352364540100098</v>
       </c>
       <c r="I117" t="n">
-        <v>0.025072882</v>
+        <v>0.02507288195192814</v>
       </c>
       <c r="J117" t="n">
-        <v>0.001159436</v>
+        <v>0.001159435953013599</v>
       </c>
       <c r="K117" t="n">
-        <v>0.1779693961</v>
+        <v>0.1779693961143494</v>
       </c>
       <c r="L117" t="n">
-        <v>20.5669727325</v>
+        <v>20.56697273254395</v>
       </c>
       <c r="M117" t="n">
-        <v>0.1565350564353658</v>
+        <v>0.1565350564342589</v>
       </c>
       <c r="N117" t="n">
-        <v>0.03052452684405385</v>
+        <v>0.03052452684327068</v>
       </c>
       <c r="O117" t="n">
-        <v>0.4168915810999998</v>
+        <v>0.4168915810952001</v>
       </c>
       <c r="P117" t="n">
-        <v>0.0346747227460023</v>
+        <v>0.03467472274552569</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.3465829949353658</v>
+        <v>0.3465829949339413</v>
       </c>
       <c r="R117" t="n">
-        <v>0.1330984124407669</v>
+        <v>0.1330984124391706</v>
       </c>
       <c r="S117" t="n">
-        <v>0.7304529961999995</v>
+        <v>0.7304529962158171</v>
       </c>
       <c r="T117" t="n">
-        <v>0.07700011200433809</v>
+        <v>0.07700011200406766</v>
       </c>
       <c r="U117" t="n">
-        <v>0.1427510966402439</v>
+        <v>0.1427510966420858</v>
       </c>
       <c r="V117" t="n">
-        <v>0.02871810134128091</v>
+        <v>0.02871810134086343</v>
       </c>
       <c r="W117" t="n">
-        <v>0.4662453741999997</v>
+        <v>0.4662453741140666</v>
       </c>
       <c r="X117" t="n">
-        <v>0.02036402341278425</v>
+        <v>0.02036402341296036</v>
       </c>
       <c r="Y117" t="n">
-        <v>0.2852039741682926</v>
+        <v>0.2852039741700077</v>
       </c>
       <c r="Z117" t="n">
-        <v>0.09385414423184092</v>
+        <v>0.09385414423466071</v>
       </c>
       <c r="AA117" t="n">
-        <v>0.5909988007999996</v>
+        <v>0.5909988008050959</v>
       </c>
       <c r="AB117" t="n">
-        <v>0.04104123589357481</v>
+        <v>0.04104123589379212</v>
       </c>
       <c r="AC117" t="n">
-        <v>0.1642391750942908</v>
+        <v>0.1642391750949263</v>
       </c>
       <c r="AD117" t="n">
-        <v>0.03204295717521214</v>
+        <v>0.03204295717511681</v>
       </c>
       <c r="AE117" t="n">
-        <v>0.5123871224999998</v>
+        <v>0.5123871224851086</v>
       </c>
       <c r="AF117" t="n">
-        <v>0.03338508958630819</v>
+        <v>0.03338508958641036</v>
       </c>
       <c r="AG117" t="n">
-        <v>0.3643867084596342</v>
+        <v>0.3643867084591742</v>
       </c>
       <c r="AH117" t="n">
-        <v>0.1372493354436198</v>
+        <v>0.1372493354432205</v>
       </c>
       <c r="AI117" t="n">
-        <v>0.7304529961999995</v>
+        <v>0.7304529962158171</v>
       </c>
       <c r="AJ117" t="n">
-        <v>0.07399990029617637</v>
+        <v>0.07399990029606549</v>
       </c>
     </row>
     <row r="118">
@@ -13431,100 +13431,100 @@
         <v>16</v>
       </c>
       <c r="E118" t="n">
-        <v>0.0168364048</v>
+        <v>0.01683640480041504</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0005310225</v>
+        <v>0.0005310224951244891</v>
       </c>
       <c r="G118" t="n">
-        <v>0.1015047431</v>
+        <v>0.1015047430992126</v>
       </c>
       <c r="H118" t="n">
-        <v>5.3089704514</v>
+        <v>5.30897045135498</v>
       </c>
       <c r="I118" t="n">
-        <v>0.0250305645</v>
+        <v>0.02503056451678276</v>
       </c>
       <c r="J118" t="n">
-        <v>0.0011835854</v>
+        <v>0.001183585380204022</v>
       </c>
       <c r="K118" t="n">
-        <v>0.1821590662</v>
+        <v>0.1821590662002563</v>
       </c>
       <c r="L118" t="n">
-        <v>27.5252933502</v>
+        <v>27.52529335021973</v>
       </c>
       <c r="M118" t="n">
-        <v>0.132193325437805</v>
+        <v>0.1321933254349027</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02545683577205598</v>
+        <v>0.0254568357713427</v>
       </c>
       <c r="O118" t="n">
-        <v>0.3887546417000003</v>
+        <v>0.3887546416974601</v>
       </c>
       <c r="P118" t="n">
-        <v>0.03075903610393397</v>
+        <v>0.0307590361034171</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.3896332382121951</v>
+        <v>0.3896332382180223</v>
       </c>
       <c r="R118" t="n">
-        <v>0.2021909272644597</v>
+        <v>0.2021909272682562</v>
       </c>
       <c r="S118" t="n">
-        <v>0.9879666946999994</v>
+        <v>0.9879666946689909</v>
       </c>
       <c r="T118" t="n">
-        <v>0.09160989065946749</v>
+        <v>0.09160989066084101</v>
       </c>
       <c r="U118" t="n">
-        <v>0.09765606372195125</v>
+        <v>0.09765606372449662</v>
       </c>
       <c r="V118" t="n">
-        <v>0.01662266591634597</v>
+        <v>0.01662266591726255</v>
       </c>
       <c r="W118" t="n">
-        <v>0.3989374480999999</v>
+        <v>0.3989374480895265</v>
       </c>
       <c r="X118" t="n">
-        <v>0.01380114625902507</v>
+        <v>0.01380114625944753</v>
       </c>
       <c r="Y118" t="n">
-        <v>0.1769303466695122</v>
+        <v>0.1769303466748584</v>
       </c>
       <c r="Z118" t="n">
-        <v>0.04150729204007163</v>
+        <v>0.04150729204274503</v>
       </c>
       <c r="AA118" t="n">
-        <v>0.4501842635000006</v>
+        <v>0.4501842635046103</v>
       </c>
       <c r="AB118" t="n">
-        <v>0.02643878020173244</v>
+        <v>0.02643878020260659</v>
       </c>
       <c r="AC118" t="n">
-        <v>0.1056755595801962</v>
+        <v>0.1056755595785234</v>
       </c>
       <c r="AD118" t="n">
-        <v>0.01559752529945331</v>
+        <v>0.01559752529901589</v>
       </c>
       <c r="AE118" t="n">
-        <v>0.4521558333</v>
+        <v>0.4521558333489963</v>
       </c>
       <c r="AF118" t="n">
-        <v>0.02157155854038681</v>
+        <v>0.02157155854003553</v>
       </c>
       <c r="AG118" t="n">
-        <v>0.2994363664139161</v>
+        <v>0.2994363664130498</v>
       </c>
       <c r="AH118" t="n">
-        <v>0.09598162869295283</v>
+        <v>0.09598162869231715</v>
       </c>
       <c r="AI118" t="n">
-        <v>0.9879666946999994</v>
+        <v>0.9879666946689909</v>
       </c>
       <c r="AJ118" t="n">
-        <v>0.06125050009640864</v>
+        <v>0.06125050009620783</v>
       </c>
     </row>
     <row r="119">
@@ -13543,100 +13543,100 @@
         <v>32</v>
       </c>
       <c r="E119" t="n">
-        <v>0.0157046411</v>
+        <v>0.01570464111864567</v>
       </c>
       <c r="F119" t="n">
-        <v>0.000453404</v>
+        <v>0.0004534040344879031</v>
       </c>
       <c r="G119" t="n">
-        <v>0.0847632587</v>
+        <v>0.08476325869560242</v>
       </c>
       <c r="H119" t="n">
-        <v>5.1644978523</v>
+        <v>5.164497852325439</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0242538955</v>
+        <v>0.02425389550626278</v>
       </c>
       <c r="J119" t="n">
-        <v>0.0010550168</v>
+        <v>0.001055016764439642</v>
       </c>
       <c r="K119" t="n">
-        <v>0.1642268896</v>
+        <v>0.1642268896102905</v>
       </c>
       <c r="L119" t="n">
-        <v>28.7357273102</v>
+        <v>28.73572731018066</v>
       </c>
       <c r="M119" t="n">
-        <v>0.1255073165621951</v>
+        <v>0.1255073165674659</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02312421512293697</v>
+        <v>0.0231242151231895</v>
       </c>
       <c r="O119" t="n">
-        <v>0.3528713001000003</v>
+        <v>0.3528713001380623</v>
       </c>
       <c r="P119" t="n">
-        <v>0.02926894370721068</v>
+        <v>0.02926894370820082</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.3787418887560975</v>
+        <v>0.3787418887496808</v>
       </c>
       <c r="R119" t="n">
-        <v>0.1945078316783384</v>
+        <v>0.1945078316700612</v>
       </c>
       <c r="S119" t="n">
-        <v>1.021111620799999</v>
+        <v>1.021111620778282</v>
       </c>
       <c r="T119" t="n">
-        <v>0.08956699004332268</v>
+        <v>0.08956699004186909</v>
       </c>
       <c r="U119" t="n">
-        <v>0.09473083611585376</v>
+        <v>0.09473083610853557</v>
       </c>
       <c r="V119" t="n">
-        <v>0.01505713754698794</v>
+        <v>0.01505713754664503</v>
       </c>
       <c r="W119" t="n">
-        <v>0.3528941022000005</v>
+        <v>0.3528941021328933</v>
       </c>
       <c r="X119" t="n">
-        <v>0.01334949650562482</v>
+        <v>0.0133494965049222</v>
       </c>
       <c r="Y119" t="n">
-        <v>0.1370341165317073</v>
+        <v>0.1370341165315703</v>
       </c>
       <c r="Z119" t="n">
-        <v>0.02934145193824368</v>
+        <v>0.02934145193749106</v>
       </c>
       <c r="AA119" t="n">
-        <v>0.3762804616000004</v>
+        <v>0.3762804615978155</v>
       </c>
       <c r="AB119" t="n">
-        <v>0.02178951950795436</v>
+        <v>0.02178951950786411</v>
       </c>
       <c r="AC119" t="n">
-        <v>0.1001322126349242</v>
+        <v>0.1001322126336478</v>
       </c>
       <c r="AD119" t="n">
-        <v>0.01431889305057551</v>
+        <v>0.01431889305023963</v>
       </c>
       <c r="AE119" t="n">
-        <v>0.4493261983000005</v>
+        <v>0.4493261982819376</v>
       </c>
       <c r="AF119" t="n">
-        <v>0.02043877738535883</v>
+        <v>0.02043877738511545</v>
       </c>
       <c r="AG119" t="n">
-        <v>0.2919774082967886</v>
+        <v>0.2919774082960187</v>
       </c>
       <c r="AH119" t="n">
-        <v>0.09192087512171224</v>
+        <v>0.09192087512085258</v>
       </c>
       <c r="AI119" t="n">
-        <v>1.021111620799999</v>
+        <v>1.021111620778282</v>
       </c>
       <c r="AJ119" t="n">
-        <v>0.05986394747074943</v>
+        <v>0.05986394747056945</v>
       </c>
     </row>
     <row r="120">
@@ -13655,100 +13655,100 @@
         <v>64</v>
       </c>
       <c r="E120" t="n">
-        <v>0.0284430701</v>
+        <v>0.02844307012856007</v>
       </c>
       <c r="F120" t="n">
-        <v>0.0016734792</v>
+        <v>0.001673479215241969</v>
       </c>
       <c r="G120" t="n">
-        <v>0.2325986624</v>
+        <v>0.2325986623764038</v>
       </c>
       <c r="H120" t="n">
-        <v>8.9316225052</v>
+        <v>8.931622505187988</v>
       </c>
       <c r="I120" t="n">
-        <v>0.0230130572</v>
+        <v>0.02301305718719959</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0017193903</v>
+        <v>0.001719390274956822</v>
       </c>
       <c r="K120" t="n">
-        <v>0.290583998</v>
+        <v>0.290583997964859</v>
       </c>
       <c r="L120" t="n">
-        <v>21.1653823853</v>
+        <v>21.16538238525391</v>
       </c>
       <c r="M120" t="n">
-        <v>0.1751176375792683</v>
+        <v>0.175117637577536</v>
       </c>
       <c r="N120" t="n">
-        <v>0.04466823105647692</v>
+        <v>0.04466823105599976</v>
       </c>
       <c r="O120" t="n">
-        <v>0.5015959885000001</v>
+        <v>0.5015959885816628</v>
       </c>
       <c r="P120" t="n">
-        <v>0.03713811982641763</v>
+        <v>0.03713811982616966</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.5420544663134147</v>
+        <v>0.542054466314503</v>
       </c>
       <c r="R120" t="n">
-        <v>0.3696025432287715</v>
+        <v>0.3696025432282497</v>
       </c>
       <c r="S120" t="n">
-        <v>1.014305214</v>
+        <v>1.01430521404437</v>
       </c>
       <c r="T120" t="n">
-        <v>0.1135360656501798</v>
+        <v>0.1135360656505288</v>
       </c>
       <c r="U120" t="n">
-        <v>0.1437459940317073</v>
+        <v>0.1437459940377766</v>
       </c>
       <c r="V120" t="n">
-        <v>0.03020988406833277</v>
+        <v>0.03020988406883178</v>
       </c>
       <c r="W120" t="n">
-        <v>0.4666839047</v>
+        <v>0.466683904724249</v>
       </c>
       <c r="X120" t="n">
-        <v>0.02098512520600898</v>
+        <v>0.02098512520662169</v>
       </c>
       <c r="Y120" t="n">
-        <v>0.4233468411756097</v>
+        <v>0.4233468411730258</v>
       </c>
       <c r="Z120" t="n">
-        <v>0.2138296912516102</v>
+        <v>0.2138296912506393</v>
       </c>
       <c r="AA120" t="n">
-        <v>0.7620320760999988</v>
+        <v>0.7620320761082553</v>
       </c>
       <c r="AB120" t="n">
-        <v>0.06061727077125521</v>
+        <v>0.06061727077081987</v>
       </c>
       <c r="AC120" t="n">
-        <v>0.1745591514942462</v>
+        <v>0.1745591514939371</v>
       </c>
       <c r="AD120" t="n">
-        <v>0.03507988185191412</v>
+        <v>0.0350798818515719</v>
       </c>
       <c r="AE120" t="n">
-        <v>0.5097239068000006</v>
+        <v>0.5097239068402644</v>
       </c>
       <c r="AF120" t="n">
-        <v>0.03545613361182786</v>
+        <v>0.03545613361173592</v>
       </c>
       <c r="AG120" t="n">
-        <v>0.6982484974299732</v>
+        <v>0.6982484974285539</v>
       </c>
       <c r="AH120" t="n">
-        <v>0.4980723805565513</v>
+        <v>0.498072380554508</v>
       </c>
       <c r="AI120" t="n">
-        <v>1.0380247614</v>
+        <v>1.038024761418569</v>
       </c>
       <c r="AJ120" t="n">
-        <v>0.1416008760610425</v>
+        <v>0.1416008760607504</v>
       </c>
     </row>
     <row r="121">
@@ -13767,100 +13767,100 @@
         <v>96</v>
       </c>
       <c r="E121" t="n">
-        <v>0.0295497831</v>
+        <v>0.02954978309571743</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0021981567</v>
+        <v>0.002198156667873263</v>
       </c>
       <c r="G121" t="n">
-        <v>0.2798509002</v>
+        <v>0.2798509001731873</v>
       </c>
       <c r="H121" t="n">
-        <v>11.4058761597</v>
+        <v>11.40587615966797</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0285624638</v>
+        <v>0.02856246381998062</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0030317914</v>
+        <v>0.003031791420653462</v>
       </c>
       <c r="K121" t="n">
-        <v>0.3100750148</v>
+        <v>0.3100750148296356</v>
       </c>
       <c r="L121" t="n">
-        <v>20.6819248199</v>
+        <v>20.68192481994629</v>
       </c>
       <c r="M121" t="n">
-        <v>0.1047224872512195</v>
+        <v>0.1047224872532847</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02774019915774075</v>
+        <v>0.0277401991566876</v>
       </c>
       <c r="O121" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="P121" t="n">
-        <v>0.0234244816968062</v>
+        <v>0.0234244816969166</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.2164894651195122</v>
+        <v>0.2164894651139692</v>
       </c>
       <c r="R121" t="n">
-        <v>0.1065554387501838</v>
+        <v>0.1065554387484977</v>
       </c>
       <c r="S121" t="n">
-        <v>1.1798859835</v>
+        <v>1.179885983564741</v>
       </c>
       <c r="T121" t="n">
-        <v>0.04840875004981277</v>
+        <v>0.04840875004857093</v>
       </c>
       <c r="U121" t="n">
-        <v>0.1496084219585366</v>
+        <v>0.149608421968505</v>
       </c>
       <c r="V121" t="n">
-        <v>0.04540272486702115</v>
+        <v>0.04540272486854362</v>
       </c>
       <c r="W121" t="n">
-        <v>0.5718198603999998</v>
+        <v>0.5718198604592146</v>
       </c>
       <c r="X121" t="n">
-        <v>0.02021816357549901</v>
+        <v>0.02021816357692962</v>
       </c>
       <c r="Y121" t="n">
-        <v>0.3847536312670732</v>
+        <v>0.3847536312661389</v>
       </c>
       <c r="Z121" t="n">
-        <v>0.2735928128741828</v>
+        <v>0.2735928128774135</v>
       </c>
       <c r="AA121" t="n">
-        <v>1.3098068291</v>
+        <v>1.309806829165183</v>
       </c>
       <c r="AB121" t="n">
-        <v>0.04887607479335902</v>
+        <v>0.04887607479346211</v>
       </c>
       <c r="AC121" t="n">
-        <v>0.060260214929215</v>
+        <v>0.06026021492699485</v>
       </c>
       <c r="AD121" t="n">
-        <v>0.007562304780578601</v>
+        <v>0.007562304780445199</v>
       </c>
       <c r="AE121" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="AF121" t="n">
-        <v>0.01206245808820513</v>
+        <v>0.01206245808771809</v>
       </c>
       <c r="AG121" t="n">
-        <v>0.1370585935681088</v>
+        <v>0.1370585935677613</v>
       </c>
       <c r="AH121" t="n">
-        <v>0.03128938791815328</v>
+        <v>0.03128938791772624</v>
       </c>
       <c r="AI121" t="n">
-        <v>1.3108724034</v>
+        <v>1.310872403451697</v>
       </c>
       <c r="AJ121" t="n">
-        <v>0.02713927377145006</v>
+        <v>0.02713927377137156</v>
       </c>
     </row>
     <row r="122">
@@ -13879,100 +13879,100 @@
         <v>128</v>
       </c>
       <c r="E122" t="n">
-        <v>0.0295497831</v>
+        <v>0.02954978309571743</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0021981567</v>
+        <v>0.002198156667873263</v>
       </c>
       <c r="G122" t="n">
-        <v>0.2798509002</v>
+        <v>0.2798509001731873</v>
       </c>
       <c r="H122" t="n">
-        <v>11.4058761597</v>
+        <v>11.40587615966797</v>
       </c>
       <c r="I122" t="n">
-        <v>0.0285624638</v>
+        <v>0.02856246381998062</v>
       </c>
       <c r="J122" t="n">
-        <v>0.0030317914</v>
+        <v>0.003031791420653462</v>
       </c>
       <c r="K122" t="n">
-        <v>0.3100750148</v>
+        <v>0.3100750148296356</v>
       </c>
       <c r="L122" t="n">
-        <v>20.6819248199</v>
+        <v>20.68192481994629</v>
       </c>
       <c r="M122" t="n">
-        <v>0.1047224872512195</v>
+        <v>0.1047224872532847</v>
       </c>
       <c r="N122" t="n">
-        <v>0.02774019915774075</v>
+        <v>0.0277401991566876</v>
       </c>
       <c r="O122" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="P122" t="n">
-        <v>0.0234244816968062</v>
+        <v>0.0234244816969166</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.2164894651195122</v>
+        <v>0.2164894651139692</v>
       </c>
       <c r="R122" t="n">
-        <v>0.1065554387501838</v>
+        <v>0.1065554387484977</v>
       </c>
       <c r="S122" t="n">
-        <v>1.1798859835</v>
+        <v>1.179885983564741</v>
       </c>
       <c r="T122" t="n">
-        <v>0.04840875004981277</v>
+        <v>0.04840875004857093</v>
       </c>
       <c r="U122" t="n">
-        <v>0.1496084219585366</v>
+        <v>0.149608421968505</v>
       </c>
       <c r="V122" t="n">
-        <v>0.04540272486702115</v>
+        <v>0.04540272486854362</v>
       </c>
       <c r="W122" t="n">
-        <v>0.5718198603999998</v>
+        <v>0.5718198604592146</v>
       </c>
       <c r="X122" t="n">
-        <v>0.02021816357549901</v>
+        <v>0.02021816357692962</v>
       </c>
       <c r="Y122" t="n">
-        <v>0.3847536312670732</v>
+        <v>0.3847536312661389</v>
       </c>
       <c r="Z122" t="n">
-        <v>0.2735928128741828</v>
+        <v>0.2735928128774135</v>
       </c>
       <c r="AA122" t="n">
-        <v>1.3098068291</v>
+        <v>1.309806829165183</v>
       </c>
       <c r="AB122" t="n">
-        <v>0.04887607479335902</v>
+        <v>0.04887607479346211</v>
       </c>
       <c r="AC122" t="n">
-        <v>0.060260214929215</v>
+        <v>0.06026021492699485</v>
       </c>
       <c r="AD122" t="n">
-        <v>0.007562304780578601</v>
+        <v>0.007562304780445199</v>
       </c>
       <c r="AE122" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="AF122" t="n">
-        <v>0.01206245808820513</v>
+        <v>0.01206245808771809</v>
       </c>
       <c r="AG122" t="n">
-        <v>0.1370585935681088</v>
+        <v>0.1370585935677613</v>
       </c>
       <c r="AH122" t="n">
-        <v>0.03128938791815328</v>
+        <v>0.03128938791772624</v>
       </c>
       <c r="AI122" t="n">
-        <v>1.3108724034</v>
+        <v>1.310872403451697</v>
       </c>
       <c r="AJ122" t="n">
-        <v>0.02713927377145006</v>
+        <v>0.02713927377137156</v>
       </c>
     </row>
     <row r="123">
@@ -13991,100 +13991,100 @@
         <v>160</v>
       </c>
       <c r="E123" t="n">
-        <v>0.0295497831</v>
+        <v>0.02954978309571743</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0021981567</v>
+        <v>0.002198156667873263</v>
       </c>
       <c r="G123" t="n">
-        <v>0.2798509002</v>
+        <v>0.2798509001731873</v>
       </c>
       <c r="H123" t="n">
-        <v>11.4058761597</v>
+        <v>11.40587615966797</v>
       </c>
       <c r="I123" t="n">
-        <v>0.0285624638</v>
+        <v>0.02856246381998062</v>
       </c>
       <c r="J123" t="n">
-        <v>0.0030317914</v>
+        <v>0.003031791420653462</v>
       </c>
       <c r="K123" t="n">
-        <v>0.3100750148</v>
+        <v>0.3100750148296356</v>
       </c>
       <c r="L123" t="n">
-        <v>20.6819248199</v>
+        <v>20.68192481994629</v>
       </c>
       <c r="M123" t="n">
-        <v>0.1047224872512195</v>
+        <v>0.1047224872532847</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02774019915774075</v>
+        <v>0.0277401991566876</v>
       </c>
       <c r="O123" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="P123" t="n">
-        <v>0.0234244816968062</v>
+        <v>0.0234244816969166</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.2164894651195122</v>
+        <v>0.2164894651139692</v>
       </c>
       <c r="R123" t="n">
-        <v>0.1065554387501838</v>
+        <v>0.1065554387484977</v>
       </c>
       <c r="S123" t="n">
-        <v>1.1798859835</v>
+        <v>1.179885983564741</v>
       </c>
       <c r="T123" t="n">
-        <v>0.04840875004981277</v>
+        <v>0.04840875004857093</v>
       </c>
       <c r="U123" t="n">
-        <v>0.1496084219585366</v>
+        <v>0.149608421968505</v>
       </c>
       <c r="V123" t="n">
-        <v>0.04540272486702115</v>
+        <v>0.04540272486854362</v>
       </c>
       <c r="W123" t="n">
-        <v>0.5718198603999998</v>
+        <v>0.5718198604592146</v>
       </c>
       <c r="X123" t="n">
-        <v>0.02021816357549901</v>
+        <v>0.02021816357692962</v>
       </c>
       <c r="Y123" t="n">
-        <v>0.3847536312670732</v>
+        <v>0.3847536312661389</v>
       </c>
       <c r="Z123" t="n">
-        <v>0.2735928128741828</v>
+        <v>0.2735928128774135</v>
       </c>
       <c r="AA123" t="n">
-        <v>1.3098068291</v>
+        <v>1.309806829165183</v>
       </c>
       <c r="AB123" t="n">
-        <v>0.04887607479335902</v>
+        <v>0.04887607479346211</v>
       </c>
       <c r="AC123" t="n">
-        <v>0.060260214929215</v>
+        <v>0.06026021492699485</v>
       </c>
       <c r="AD123" t="n">
-        <v>0.007562304780578601</v>
+        <v>0.007562304780445199</v>
       </c>
       <c r="AE123" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="AF123" t="n">
-        <v>0.01206245808820513</v>
+        <v>0.01206245808771809</v>
       </c>
       <c r="AG123" t="n">
-        <v>0.1370585935681088</v>
+        <v>0.1370585935677613</v>
       </c>
       <c r="AH123" t="n">
-        <v>0.03128938791815328</v>
+        <v>0.03128938791772624</v>
       </c>
       <c r="AI123" t="n">
-        <v>1.3108724034</v>
+        <v>1.310872403451697</v>
       </c>
       <c r="AJ123" t="n">
-        <v>0.02713927377145006</v>
+        <v>0.02713927377137156</v>
       </c>
     </row>
     <row r="124">
@@ -14103,100 +14103,100 @@
         <v>192</v>
       </c>
       <c r="E124" t="n">
-        <v>0.0295497831</v>
+        <v>0.02954978309571743</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0021981567</v>
+        <v>0.002198156667873263</v>
       </c>
       <c r="G124" t="n">
-        <v>0.2798509002</v>
+        <v>0.2798509001731873</v>
       </c>
       <c r="H124" t="n">
-        <v>11.4058761597</v>
+        <v>11.40587615966797</v>
       </c>
       <c r="I124" t="n">
-        <v>0.0285624638</v>
+        <v>0.02856246381998062</v>
       </c>
       <c r="J124" t="n">
-        <v>0.0030317914</v>
+        <v>0.003031791420653462</v>
       </c>
       <c r="K124" t="n">
-        <v>0.3100750148</v>
+        <v>0.3100750148296356</v>
       </c>
       <c r="L124" t="n">
-        <v>20.6819248199</v>
+        <v>20.68192481994629</v>
       </c>
       <c r="M124" t="n">
-        <v>0.1047224872512195</v>
+        <v>0.1047224872532847</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02774019915774075</v>
+        <v>0.0277401991566876</v>
       </c>
       <c r="O124" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="P124" t="n">
-        <v>0.0234244816968062</v>
+        <v>0.0234244816969166</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.2164894651195122</v>
+        <v>0.2164894651139692</v>
       </c>
       <c r="R124" t="n">
-        <v>0.1065554387501838</v>
+        <v>0.1065554387484977</v>
       </c>
       <c r="S124" t="n">
-        <v>1.1798859835</v>
+        <v>1.179885983564741</v>
       </c>
       <c r="T124" t="n">
-        <v>0.04840875004981277</v>
+        <v>0.04840875004857093</v>
       </c>
       <c r="U124" t="n">
-        <v>0.1496084219585366</v>
+        <v>0.149608421968505</v>
       </c>
       <c r="V124" t="n">
-        <v>0.04540272486702115</v>
+        <v>0.04540272486854362</v>
       </c>
       <c r="W124" t="n">
-        <v>0.5718198603999998</v>
+        <v>0.5718198604592146</v>
       </c>
       <c r="X124" t="n">
-        <v>0.02021816357549901</v>
+        <v>0.02021816357692962</v>
       </c>
       <c r="Y124" t="n">
-        <v>0.3847536312670732</v>
+        <v>0.3847536312661389</v>
       </c>
       <c r="Z124" t="n">
-        <v>0.2735928128741828</v>
+        <v>0.2735928128774135</v>
       </c>
       <c r="AA124" t="n">
-        <v>1.3098068291</v>
+        <v>1.309806829165183</v>
       </c>
       <c r="AB124" t="n">
-        <v>0.04887607479335902</v>
+        <v>0.04887607479346211</v>
       </c>
       <c r="AC124" t="n">
-        <v>0.060260214929215</v>
+        <v>0.06026021492699485</v>
       </c>
       <c r="AD124" t="n">
-        <v>0.007562304780578601</v>
+        <v>0.007562304780445199</v>
       </c>
       <c r="AE124" t="n">
-        <v>0.6845901877999996</v>
+        <v>0.6845901878488689</v>
       </c>
       <c r="AF124" t="n">
-        <v>0.01206245808820513</v>
+        <v>0.01206245808771809</v>
       </c>
       <c r="AG124" t="n">
-        <v>0.1370585935681088</v>
+        <v>0.1370585935677613</v>
       </c>
       <c r="AH124" t="n">
-        <v>0.03128938791815328</v>
+        <v>0.03128938791772624</v>
       </c>
       <c r="AI124" t="n">
-        <v>1.3108724034</v>
+        <v>1.310872403451697</v>
       </c>
       <c r="AJ124" t="n">
-        <v>0.02713927377145006</v>
+        <v>0.02713927377137156</v>
       </c>
     </row>
     <row r="125">
@@ -14215,100 +14215,100 @@
         <v>8</v>
       </c>
       <c r="E125" t="n">
-        <v>0.0138607109</v>
+        <v>0.01386071089655161</v>
       </c>
       <c r="F125" t="n">
-        <v>0.000349648</v>
+        <v>0.0003496480348985642</v>
       </c>
       <c r="G125" t="n">
-        <v>0.07076400520000001</v>
+        <v>0.07076400518417358</v>
       </c>
       <c r="H125" t="n">
-        <v>4.3869714737</v>
+        <v>4.386971473693848</v>
       </c>
       <c r="I125" t="n">
-        <v>0.0167645887</v>
+        <v>0.01676458865404129</v>
       </c>
       <c r="J125" t="n">
-        <v>0.0005831713000000001</v>
+        <v>0.0005831712624058127</v>
       </c>
       <c r="K125" t="n">
-        <v>0.1171741486</v>
+        <v>0.1171741485595703</v>
       </c>
       <c r="L125" t="n">
-        <v>11.6434383392</v>
+        <v>11.6434383392334</v>
       </c>
       <c r="M125" t="n">
-        <v>0.06845096223292685</v>
+        <v>0.06845096223446479</v>
       </c>
       <c r="N125" t="n">
-        <v>0.009272223164274253</v>
+        <v>0.009272223165256886</v>
       </c>
       <c r="O125" t="n">
-        <v>0.3448308877999997</v>
+        <v>0.3448308878463138</v>
       </c>
       <c r="P125" t="n">
-        <v>0.01509754329991685</v>
+        <v>0.015097543300294</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.1113279856365853</v>
+        <v>0.1113279856364027</v>
       </c>
       <c r="R125" t="n">
-        <v>0.01836537664836624</v>
+        <v>0.01836537664887799</v>
       </c>
       <c r="S125" t="n">
-        <v>0.4033647358000003</v>
+        <v>0.403364735838295</v>
       </c>
       <c r="T125" t="n">
-        <v>0.02453908249388203</v>
+        <v>0.02453908249371521</v>
       </c>
       <c r="U125" t="n">
-        <v>0.08339789055609756</v>
+        <v>0.08339789056034078</v>
       </c>
       <c r="V125" t="n">
-        <v>0.01276810702407966</v>
+        <v>0.01276810702453515</v>
       </c>
       <c r="W125" t="n">
-        <v>0.3642904786999992</v>
+        <v>0.3642904786089787</v>
       </c>
       <c r="X125" t="n">
-        <v>0.01129956994608015</v>
+        <v>0.01129956994708358</v>
       </c>
       <c r="Y125" t="n">
-        <v>0.09742875128292686</v>
+        <v>0.09742875128598223</v>
       </c>
       <c r="Z125" t="n">
-        <v>0.01602937390515284</v>
+        <v>0.01602937390561949</v>
       </c>
       <c r="AA125" t="n">
-        <v>0.3744224416000002</v>
+        <v>0.3744224415776216</v>
       </c>
       <c r="AB125" t="n">
-        <v>0.01352358256832782</v>
+        <v>0.01352358256863589</v>
       </c>
       <c r="AC125" t="n">
-        <v>0.06561770735330064</v>
+        <v>0.06561770735254088</v>
       </c>
       <c r="AD125" t="n">
-        <v>0.007207300563082972</v>
+        <v>0.007207300563101176</v>
       </c>
       <c r="AE125" t="n">
-        <v>0.3868906828999998</v>
+        <v>0.3868906829104048</v>
       </c>
       <c r="AF125" t="n">
-        <v>0.0132979949720337</v>
+        <v>0.01329799497188301</v>
       </c>
       <c r="AG125" t="n">
-        <v>0.1166417973344781</v>
+        <v>0.1166417973331963</v>
       </c>
       <c r="AH125" t="n">
-        <v>0.0173340890698816</v>
+        <v>0.01733408906925245</v>
       </c>
       <c r="AI125" t="n">
-        <v>0.4222472257000005</v>
+        <v>0.4222472257876007</v>
       </c>
       <c r="AJ125" t="n">
-        <v>0.0237341551766327</v>
+        <v>0.02373415517634739</v>
       </c>
     </row>
     <row r="126">
@@ -14327,100 +14327,100 @@
         <v>16</v>
       </c>
       <c r="E126" t="n">
-        <v>0.0143236499</v>
+        <v>0.01432364992797375</v>
       </c>
       <c r="F126" t="n">
-        <v>0.000366495</v>
+        <v>0.0003664949908852577</v>
       </c>
       <c r="G126" t="n">
-        <v>0.0789789259</v>
+        <v>0.07897892594337463</v>
       </c>
       <c r="H126" t="n">
-        <v>4.8961167336</v>
+        <v>4.896116733551025</v>
       </c>
       <c r="I126" t="n">
-        <v>0.0170686711</v>
+        <v>0.01706867106258869</v>
       </c>
       <c r="J126" t="n">
-        <v>0.0006882299</v>
+        <v>0.0006882298621349037</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1299597025</v>
+        <v>0.1299597024917603</v>
       </c>
       <c r="L126" t="n">
-        <v>10.5082798004</v>
+        <v>10.50827980041504</v>
       </c>
       <c r="M126" t="n">
-        <v>0.06789784480365856</v>
+        <v>0.0678978448082965</v>
       </c>
       <c r="N126" t="n">
-        <v>0.008334240084519554</v>
+        <v>0.008334240085638248</v>
       </c>
       <c r="O126" t="n">
-        <v>0.2586455525</v>
+        <v>0.2586455524591571</v>
       </c>
       <c r="P126" t="n">
-        <v>0.01475433535600493</v>
+        <v>0.01475433535704684</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.1401148232085366</v>
+        <v>0.1401148232080918</v>
       </c>
       <c r="R126" t="n">
-        <v>0.02584749680339326</v>
+        <v>0.02584749680344868</v>
       </c>
       <c r="S126" t="n">
-        <v>0.3439941440000007</v>
+        <v>0.3439941440037302</v>
       </c>
       <c r="T126" t="n">
-        <v>0.02989288462789392</v>
+        <v>0.02989288462775341</v>
       </c>
       <c r="U126" t="n">
-        <v>0.09347468122073188</v>
+        <v>0.0934746812155831</v>
       </c>
       <c r="V126" t="n">
-        <v>0.01536338023070269</v>
+        <v>0.01536338023016865</v>
       </c>
       <c r="W126" t="n">
-        <v>0.3878184269000009</v>
+        <v>0.3878184268344285</v>
       </c>
       <c r="X126" t="n">
-        <v>0.01289578633585771</v>
+        <v>0.01289578633534605</v>
       </c>
       <c r="Y126" t="n">
-        <v>0.137967019764634</v>
+        <v>0.1379670197659983</v>
       </c>
       <c r="Z126" t="n">
-        <v>0.02772673947558888</v>
+        <v>0.02772673947556277</v>
       </c>
       <c r="AA126" t="n">
-        <v>0.4112352291000008</v>
+        <v>0.4112352290338208</v>
       </c>
       <c r="AB126" t="n">
-        <v>0.01995026317463311</v>
+        <v>0.01995026317499829</v>
       </c>
       <c r="AC126" t="n">
-        <v>0.08069221117163246</v>
+        <v>0.08069221116937693</v>
       </c>
       <c r="AD126" t="n">
-        <v>0.01003494449175383</v>
+        <v>0.01003494449137772</v>
       </c>
       <c r="AE126" t="n">
-        <v>0.4173693365000002</v>
+        <v>0.4173693365176945</v>
       </c>
       <c r="AF126" t="n">
-        <v>0.01636147743811036</v>
+        <v>0.01636147743766642</v>
       </c>
       <c r="AG126" t="n">
-        <v>0.2008724634486173</v>
+        <v>0.2008724634478966</v>
       </c>
       <c r="AH126" t="n">
-        <v>0.04457727933444177</v>
+        <v>0.04457727933398916</v>
       </c>
       <c r="AI126" t="n">
-        <v>0.5205659127000004</v>
+        <v>0.5205659127704791</v>
       </c>
       <c r="AJ126" t="n">
-        <v>0.04081832628787934</v>
+        <v>0.04081832628771566</v>
       </c>
     </row>
     <row r="127">
@@ -14439,100 +14439,100 @@
         <v>32</v>
       </c>
       <c r="E127" t="n">
-        <v>0.012068118</v>
+        <v>0.01206811796873808</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0002942049</v>
+        <v>0.0002942049177363515</v>
       </c>
       <c r="G127" t="n">
-        <v>0.0758610368</v>
+        <v>0.07586103677749634</v>
       </c>
       <c r="H127" t="n">
-        <v>3.8244318962</v>
+        <v>3.824431896209717</v>
       </c>
       <c r="I127" t="n">
-        <v>0.0164269451</v>
+        <v>0.01642694510519505</v>
       </c>
       <c r="J127" t="n">
-        <v>0.0006201317</v>
+        <v>0.0006201316718943417</v>
       </c>
       <c r="K127" t="n">
-        <v>0.1191408113</v>
+        <v>0.1191408112645149</v>
       </c>
       <c r="L127" t="n">
-        <v>13.3091659546</v>
+        <v>13.30916595458984</v>
       </c>
       <c r="M127" t="n">
-        <v>0.0830474628146341</v>
+        <v>0.08304746282136692</v>
       </c>
       <c r="N127" t="n">
-        <v>0.01869681957526031</v>
+        <v>0.01869681957703339</v>
       </c>
       <c r="O127" t="n">
-        <v>0.5759330469000004</v>
+        <v>0.5759330469807935</v>
       </c>
       <c r="P127" t="n">
-        <v>0.0178491642512498</v>
+        <v>0.01784916425264475</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.1246280008036584</v>
+        <v>0.124628000808864</v>
       </c>
       <c r="R127" t="n">
-        <v>0.03736616404671401</v>
+        <v>0.03736616404774556</v>
       </c>
       <c r="S127" t="n">
-        <v>0.7538769849000007</v>
+        <v>0.7538769849584952</v>
       </c>
       <c r="T127" t="n">
-        <v>0.02661566135158385</v>
+        <v>0.02661566135284456</v>
       </c>
       <c r="U127" t="n">
-        <v>0.0894454478768293</v>
+        <v>0.08944544787920673</v>
       </c>
       <c r="V127" t="n">
-        <v>0.01511486908681998</v>
+        <v>0.01511486908711602</v>
       </c>
       <c r="W127" t="n">
-        <v>0.4101864358</v>
+        <v>0.4101864358698322</v>
       </c>
       <c r="X127" t="n">
-        <v>0.01205822935994698</v>
+        <v>0.01205822936058206</v>
       </c>
       <c r="Y127" t="n">
-        <v>0.1074235139463415</v>
+        <v>0.1074235139416345</v>
       </c>
       <c r="Z127" t="n">
-        <v>0.02084674903384899</v>
+        <v>0.02084674903324035</v>
       </c>
       <c r="AA127" t="n">
-        <v>0.4450896870000003</v>
+        <v>0.44508968701291</v>
       </c>
       <c r="AB127" t="n">
-        <v>0.01424717495434001</v>
+        <v>0.01424717495385092</v>
       </c>
       <c r="AC127" t="n">
-        <v>0.05484305813951828</v>
+        <v>0.05484305813849809</v>
       </c>
       <c r="AD127" t="n">
-        <v>0.005206389644340831</v>
+        <v>0.00520638964435908</v>
       </c>
       <c r="AE127" t="n">
-        <v>0.5759330469000004</v>
+        <v>0.5759330469807935</v>
       </c>
       <c r="AF127" t="n">
-        <v>0.01100065858356279</v>
+        <v>0.01100065858336529</v>
       </c>
       <c r="AG127" t="n">
-        <v>0.05732765248666369</v>
+        <v>0.05732765248641842</v>
       </c>
       <c r="AH127" t="n">
-        <v>0.005997863362795849</v>
+        <v>0.005997863362755798</v>
       </c>
       <c r="AI127" t="n">
-        <v>0.7538769849000007</v>
+        <v>0.7538769849584952</v>
       </c>
       <c r="AJ127" t="n">
-        <v>0.01143962957018865</v>
+        <v>0.01143962957014371</v>
       </c>
     </row>
     <row r="128">
@@ -14551,100 +14551,100 @@
         <v>64</v>
       </c>
       <c r="E128" t="n">
-        <v>0.0177815035</v>
+        <v>0.01778150349855423</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0006554544</v>
+        <v>0.0006554544088430703</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1051410735</v>
+        <v>0.1051410734653473</v>
       </c>
       <c r="H128" t="n">
-        <v>6.0348296165</v>
+        <v>6.034829616546631</v>
       </c>
       <c r="I128" t="n">
-        <v>0.0156032862</v>
+        <v>0.01560328621417284</v>
       </c>
       <c r="J128" t="n">
-        <v>0.0006372001</v>
+        <v>0.0006372001371346414</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1854407787</v>
+        <v>0.1854407787322998</v>
       </c>
       <c r="L128" t="n">
-        <v>11.7797250748</v>
+        <v>11.77972507476807</v>
       </c>
       <c r="M128" t="n">
-        <v>0.09043431474268293</v>
+        <v>0.09043431474196001</v>
       </c>
       <c r="N128" t="n">
-        <v>0.01644542568502385</v>
+        <v>0.01644542568686179</v>
       </c>
       <c r="O128" t="n">
-        <v>0.5096274745000002</v>
+        <v>0.5096274745673952</v>
       </c>
       <c r="P128" t="n">
-        <v>0.01954708565446576</v>
+        <v>0.01954708565420341</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.2154600008731707</v>
+        <v>0.2154600008728126</v>
       </c>
       <c r="R128" t="n">
-        <v>0.07455001704849809</v>
+        <v>0.07455001705034789</v>
       </c>
       <c r="S128" t="n">
-        <v>0.9396751933999994</v>
+        <v>0.9396751933858241</v>
       </c>
       <c r="T128" t="n">
-        <v>0.04609230217309161</v>
+        <v>0.04609230217282922</v>
       </c>
       <c r="U128" t="n">
-        <v>0.09251818455975609</v>
+        <v>0.09251818456169519</v>
       </c>
       <c r="V128" t="n">
-        <v>0.01469747486722531</v>
+        <v>0.01469747486785665</v>
       </c>
       <c r="W128" t="n">
-        <v>0.3749907816000011</v>
+        <v>0.3749907816353204</v>
       </c>
       <c r="X128" t="n">
-        <v>0.01253094345699712</v>
+        <v>0.01253094345772096</v>
       </c>
       <c r="Y128" t="n">
-        <v>0.1242569865402439</v>
+        <v>0.1242569865368642</v>
       </c>
       <c r="Z128" t="n">
-        <v>0.02392085061217476</v>
+        <v>0.02392085061348433</v>
       </c>
       <c r="AA128" t="n">
-        <v>0.5016293863000012</v>
+        <v>0.5016293862633177</v>
       </c>
       <c r="AB128" t="n">
-        <v>0.01800738478105109</v>
+        <v>0.01800738478070641</v>
       </c>
       <c r="AC128" t="n">
-        <v>0.07708206458590545</v>
+        <v>0.07708206458400121</v>
       </c>
       <c r="AD128" t="n">
-        <v>0.009499692255701832</v>
+        <v>0.009499692255424831</v>
       </c>
       <c r="AE128" t="n">
-        <v>0.5096274745000002</v>
+        <v>0.5096274745673952</v>
       </c>
       <c r="AF128" t="n">
-        <v>0.01562064404356841</v>
+        <v>0.015620644043183</v>
       </c>
       <c r="AG128" t="n">
-        <v>0.200057915679438</v>
+        <v>0.2000579156782609</v>
       </c>
       <c r="AH128" t="n">
-        <v>0.04484727684412161</v>
+        <v>0.04484727684370522</v>
       </c>
       <c r="AI128" t="n">
-        <v>0.9396751933999994</v>
+        <v>0.9396751933858241</v>
       </c>
       <c r="AJ128" t="n">
-        <v>0.04071616864725594</v>
+        <v>0.04071616864701922</v>
       </c>
     </row>
     <row r="129">
@@ -14663,100 +14663,100 @@
         <v>96</v>
       </c>
       <c r="E129" t="n">
-        <v>0.0125818299</v>
+        <v>0.01258182991296053</v>
       </c>
       <c r="F129" t="n">
-        <v>0.0003060846</v>
+        <v>0.0003060846065636724</v>
       </c>
       <c r="G129" t="n">
-        <v>0.07700905200000001</v>
+        <v>0.07700905203819275</v>
       </c>
       <c r="H129" t="n">
-        <v>4.2845230103</v>
+        <v>4.284523010253906</v>
       </c>
       <c r="I129" t="n">
-        <v>0.0172593482</v>
+        <v>0.01725934818387032</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0007574905</v>
+        <v>0.0007574905175715685</v>
       </c>
       <c r="K129" t="n">
-        <v>0.136108309</v>
+        <v>0.1361083090305328</v>
       </c>
       <c r="L129" t="n">
-        <v>10.9357700348</v>
+        <v>10.93577003479004</v>
       </c>
       <c r="M129" t="n">
-        <v>0.06197533442073173</v>
+        <v>0.06197533442058678</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0077291697801156</v>
+        <v>0.00772916977985872</v>
       </c>
       <c r="O129" t="n">
-        <v>0.3387620429</v>
+        <v>0.3387620429066942</v>
       </c>
       <c r="P129" t="n">
-        <v>0.01339898384671057</v>
+        <v>0.01339898384675011</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.07252269312195121</v>
+        <v>0.07252269312200969</v>
       </c>
       <c r="R129" t="n">
-        <v>0.01257649930425678</v>
+        <v>0.01257649930454298</v>
       </c>
       <c r="S129" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="T129" t="n">
-        <v>0.01549659642395553</v>
+        <v>0.01549659642394678</v>
       </c>
       <c r="U129" t="n">
-        <v>0.08181640081341472</v>
+        <v>0.08181640081698308</v>
       </c>
       <c r="V129" t="n">
-        <v>0.01310317712771228</v>
+        <v>0.0131031771278257</v>
       </c>
       <c r="W129" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="X129" t="n">
-        <v>0.01083187128740472</v>
+        <v>0.0108318712880284</v>
       </c>
       <c r="Y129" t="n">
-        <v>0.1045450819902439</v>
+        <v>0.1045450819941629</v>
       </c>
       <c r="Z129" t="n">
-        <v>0.01898052800409532</v>
+        <v>0.01898052800316313</v>
       </c>
       <c r="AA129" t="n">
-        <v>0.4150046769000006</v>
+        <v>0.4150046768288576</v>
       </c>
       <c r="AB129" t="n">
-        <v>0.01362127223138267</v>
+        <v>0.01362127223207227</v>
       </c>
       <c r="AC129" t="n">
-        <v>0.05549282950102587</v>
+        <v>0.05549282950032879</v>
       </c>
       <c r="AD129" t="n">
-        <v>0.004957190472107798</v>
+        <v>0.004957190471930422</v>
       </c>
       <c r="AE129" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="AF129" t="n">
-        <v>0.01112830763547313</v>
+        <v>0.01112830763533616</v>
       </c>
       <c r="AG129" t="n">
-        <v>0.0687954165190901</v>
+        <v>0.06879541651993169</v>
       </c>
       <c r="AH129" t="n">
-        <v>0.007056423585700354</v>
+        <v>0.007056423585689269</v>
       </c>
       <c r="AI129" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="AJ129" t="n">
-        <v>0.01370697273266901</v>
+        <v>0.01370697273284599</v>
       </c>
     </row>
     <row r="130">
@@ -14775,100 +14775,100 @@
         <v>128</v>
       </c>
       <c r="E130" t="n">
-        <v>0.0125818299</v>
+        <v>0.01258182991296053</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0003060846</v>
+        <v>0.0003060846065636724</v>
       </c>
       <c r="G130" t="n">
-        <v>0.07700905200000001</v>
+        <v>0.07700905203819275</v>
       </c>
       <c r="H130" t="n">
-        <v>4.2845230103</v>
+        <v>4.284523010253906</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0172593482</v>
+        <v>0.01725934818387032</v>
       </c>
       <c r="J130" t="n">
-        <v>0.0007574905</v>
+        <v>0.0007574905175715685</v>
       </c>
       <c r="K130" t="n">
-        <v>0.136108309</v>
+        <v>0.1361083090305328</v>
       </c>
       <c r="L130" t="n">
-        <v>10.9357700348</v>
+        <v>10.93577003479004</v>
       </c>
       <c r="M130" t="n">
-        <v>0.06197533442073173</v>
+        <v>0.06197533442058678</v>
       </c>
       <c r="N130" t="n">
-        <v>0.0077291697801156</v>
+        <v>0.00772916977985872</v>
       </c>
       <c r="O130" t="n">
-        <v>0.3387620429</v>
+        <v>0.3387620429066942</v>
       </c>
       <c r="P130" t="n">
-        <v>0.01339898384671057</v>
+        <v>0.01339898384675011</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.07252269312195121</v>
+        <v>0.07252269312200969</v>
       </c>
       <c r="R130" t="n">
-        <v>0.01257649930425678</v>
+        <v>0.01257649930454298</v>
       </c>
       <c r="S130" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="T130" t="n">
-        <v>0.01549659642395553</v>
+        <v>0.01549659642394678</v>
       </c>
       <c r="U130" t="n">
-        <v>0.08181640081341472</v>
+        <v>0.08181640081698308</v>
       </c>
       <c r="V130" t="n">
-        <v>0.01310317712771228</v>
+        <v>0.0131031771278257</v>
       </c>
       <c r="W130" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="X130" t="n">
-        <v>0.01083187128740472</v>
+        <v>0.0108318712880284</v>
       </c>
       <c r="Y130" t="n">
-        <v>0.1045450819902439</v>
+        <v>0.1045450819941629</v>
       </c>
       <c r="Z130" t="n">
-        <v>0.01898052800409532</v>
+        <v>0.01898052800316313</v>
       </c>
       <c r="AA130" t="n">
-        <v>0.4150046769000006</v>
+        <v>0.4150046768288576</v>
       </c>
       <c r="AB130" t="n">
-        <v>0.01362127223138267</v>
+        <v>0.01362127223207227</v>
       </c>
       <c r="AC130" t="n">
-        <v>0.05549282950102587</v>
+        <v>0.05549282950032879</v>
       </c>
       <c r="AD130" t="n">
-        <v>0.004957190472107798</v>
+        <v>0.004957190471930422</v>
       </c>
       <c r="AE130" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="AF130" t="n">
-        <v>0.01112830763547313</v>
+        <v>0.01112830763533616</v>
       </c>
       <c r="AG130" t="n">
-        <v>0.0687954165190901</v>
+        <v>0.06879541651993169</v>
       </c>
       <c r="AH130" t="n">
-        <v>0.007056423585700354</v>
+        <v>0.007056423585689269</v>
       </c>
       <c r="AI130" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="AJ130" t="n">
-        <v>0.01370697273266901</v>
+        <v>0.01370697273284599</v>
       </c>
     </row>
     <row r="131">
@@ -14887,100 +14887,100 @@
         <v>160</v>
       </c>
       <c r="E131" t="n">
-        <v>0.0125818299</v>
+        <v>0.01258182991296053</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0003060846</v>
+        <v>0.0003060846065636724</v>
       </c>
       <c r="G131" t="n">
-        <v>0.07700905200000001</v>
+        <v>0.07700905203819275</v>
       </c>
       <c r="H131" t="n">
-        <v>4.2845230103</v>
+        <v>4.284523010253906</v>
       </c>
       <c r="I131" t="n">
-        <v>0.0172593482</v>
+        <v>0.01725934818387032</v>
       </c>
       <c r="J131" t="n">
-        <v>0.0007574905</v>
+        <v>0.0007574905175715685</v>
       </c>
       <c r="K131" t="n">
-        <v>0.136108309</v>
+        <v>0.1361083090305328</v>
       </c>
       <c r="L131" t="n">
-        <v>10.9357700348</v>
+        <v>10.93577003479004</v>
       </c>
       <c r="M131" t="n">
-        <v>0.06197533442073173</v>
+        <v>0.06197533442058678</v>
       </c>
       <c r="N131" t="n">
-        <v>0.0077291697801156</v>
+        <v>0.00772916977985872</v>
       </c>
       <c r="O131" t="n">
-        <v>0.3387620429</v>
+        <v>0.3387620429066942</v>
       </c>
       <c r="P131" t="n">
-        <v>0.01339898384671057</v>
+        <v>0.01339898384675011</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.07252269312195121</v>
+        <v>0.07252269312200969</v>
       </c>
       <c r="R131" t="n">
-        <v>0.01257649930425678</v>
+        <v>0.01257649930454298</v>
       </c>
       <c r="S131" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="T131" t="n">
-        <v>0.01549659642395553</v>
+        <v>0.01549659642394678</v>
       </c>
       <c r="U131" t="n">
-        <v>0.08181640081341472</v>
+        <v>0.08181640081698308</v>
       </c>
       <c r="V131" t="n">
-        <v>0.01310317712771228</v>
+        <v>0.0131031771278257</v>
       </c>
       <c r="W131" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="X131" t="n">
-        <v>0.01083187128740472</v>
+        <v>0.0108318712880284</v>
       </c>
       <c r="Y131" t="n">
-        <v>0.1045450819902439</v>
+        <v>0.1045450819941629</v>
       </c>
       <c r="Z131" t="n">
-        <v>0.01898052800409532</v>
+        <v>0.01898052800316313</v>
       </c>
       <c r="AA131" t="n">
-        <v>0.4150046769000006</v>
+        <v>0.4150046768288576</v>
       </c>
       <c r="AB131" t="n">
-        <v>0.01362127223138267</v>
+        <v>0.01362127223207227</v>
       </c>
       <c r="AC131" t="n">
-        <v>0.05549282950102587</v>
+        <v>0.05549282950032879</v>
       </c>
       <c r="AD131" t="n">
-        <v>0.004957190472107798</v>
+        <v>0.004957190471930422</v>
       </c>
       <c r="AE131" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="AF131" t="n">
-        <v>0.01112830763547313</v>
+        <v>0.01112830763533616</v>
       </c>
       <c r="AG131" t="n">
-        <v>0.0687954165190901</v>
+        <v>0.06879541651993169</v>
       </c>
       <c r="AH131" t="n">
-        <v>0.007056423585700354</v>
+        <v>0.007056423585689269</v>
       </c>
       <c r="AI131" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="AJ131" t="n">
-        <v>0.01370697273266901</v>
+        <v>0.01370697273284599</v>
       </c>
     </row>
     <row r="132">
@@ -14999,100 +14999,100 @@
         <v>192</v>
       </c>
       <c r="E132" t="n">
-        <v>0.0125818299</v>
+        <v>0.01258182991296053</v>
       </c>
       <c r="F132" t="n">
-        <v>0.0003060846</v>
+        <v>0.0003060846065636724</v>
       </c>
       <c r="G132" t="n">
-        <v>0.07700905200000001</v>
+        <v>0.07700905203819275</v>
       </c>
       <c r="H132" t="n">
-        <v>4.2845230103</v>
+        <v>4.284523010253906</v>
       </c>
       <c r="I132" t="n">
-        <v>0.0172593482</v>
+        <v>0.01725934818387032</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0007574905</v>
+        <v>0.0007574905175715685</v>
       </c>
       <c r="K132" t="n">
-        <v>0.136108309</v>
+        <v>0.1361083090305328</v>
       </c>
       <c r="L132" t="n">
-        <v>10.9357700348</v>
+        <v>10.93577003479004</v>
       </c>
       <c r="M132" t="n">
-        <v>0.06197533442073173</v>
+        <v>0.06197533442058678</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0077291697801156</v>
+        <v>0.00772916977985872</v>
       </c>
       <c r="O132" t="n">
-        <v>0.3387620429</v>
+        <v>0.3387620429066942</v>
       </c>
       <c r="P132" t="n">
-        <v>0.01339898384671057</v>
+        <v>0.01339898384675011</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.07252269312195121</v>
+        <v>0.07252269312200969</v>
       </c>
       <c r="R132" t="n">
-        <v>0.01257649930425678</v>
+        <v>0.01257649930454298</v>
       </c>
       <c r="S132" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="T132" t="n">
-        <v>0.01549659642395553</v>
+        <v>0.01549659642394678</v>
       </c>
       <c r="U132" t="n">
-        <v>0.08181640081341472</v>
+        <v>0.08181640081698308</v>
       </c>
       <c r="V132" t="n">
-        <v>0.01310317712771228</v>
+        <v>0.0131031771278257</v>
       </c>
       <c r="W132" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="X132" t="n">
-        <v>0.01083187128740472</v>
+        <v>0.0108318712880284</v>
       </c>
       <c r="Y132" t="n">
-        <v>0.1045450819902439</v>
+        <v>0.1045450819941629</v>
       </c>
       <c r="Z132" t="n">
-        <v>0.01898052800409532</v>
+        <v>0.01898052800316313</v>
       </c>
       <c r="AA132" t="n">
-        <v>0.4150046769000006</v>
+        <v>0.4150046768288576</v>
       </c>
       <c r="AB132" t="n">
-        <v>0.01362127223138267</v>
+        <v>0.01362127223207227</v>
       </c>
       <c r="AC132" t="n">
-        <v>0.05549282950102587</v>
+        <v>0.05549282950032879</v>
       </c>
       <c r="AD132" t="n">
-        <v>0.004957190472107798</v>
+        <v>0.004957190471930422</v>
       </c>
       <c r="AE132" t="n">
-        <v>0.3795966800000006</v>
+        <v>0.3795966799711152</v>
       </c>
       <c r="AF132" t="n">
-        <v>0.01112830763547313</v>
+        <v>0.01112830763533616</v>
       </c>
       <c r="AG132" t="n">
-        <v>0.0687954165190901</v>
+        <v>0.06879541651993169</v>
       </c>
       <c r="AH132" t="n">
-        <v>0.007056423585700354</v>
+        <v>0.007056423585689269</v>
       </c>
       <c r="AI132" t="n">
-        <v>0.4611083253000006</v>
+        <v>0.4611083253881247</v>
       </c>
       <c r="AJ132" t="n">
-        <v>0.01370697273266901</v>
+        <v>0.01370697273284599</v>
       </c>
     </row>
     <row r="133">
@@ -15111,100 +15111,100 @@
         <v>8</v>
       </c>
       <c r="E133" t="n">
-        <v>0.0148041658</v>
+        <v>0.0148041658103466</v>
       </c>
       <c r="F133" t="n">
-        <v>0.0003990041</v>
+        <v>0.0003990041150245816</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0790044069</v>
+        <v>0.07900440692901611</v>
       </c>
       <c r="H133" t="n">
-        <v>4.9416623116</v>
+        <v>4.941662311553955</v>
       </c>
       <c r="I133" t="n">
-        <v>0.0186494943</v>
+        <v>0.01864949427545071</v>
       </c>
       <c r="J133" t="n">
-        <v>0.0007510799000000001</v>
+        <v>0.0007510798750445247</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1391564012</v>
+        <v>0.1391564011573792</v>
       </c>
       <c r="L133" t="n">
-        <v>12.9546756744</v>
+        <v>12.95467567443848</v>
       </c>
       <c r="M133" t="n">
-        <v>0.0675340331231707</v>
+        <v>0.06753403312137013</v>
       </c>
       <c r="N133" t="n">
-        <v>0.008751803273861351</v>
+        <v>0.008751803274718747</v>
       </c>
       <c r="O133" t="n">
-        <v>0.3500795634000005</v>
+        <v>0.3500795634866165</v>
       </c>
       <c r="P133" t="n">
-        <v>0.01473755984146369</v>
+        <v>0.01473755984079573</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.1077226858731707</v>
+        <v>0.1077226858752183</v>
       </c>
       <c r="R133" t="n">
-        <v>0.02163795676043308</v>
+        <v>0.02163795676177208</v>
       </c>
       <c r="S133" t="n">
-        <v>0.5917145929999998</v>
+        <v>0.5917145930445855</v>
       </c>
       <c r="T133" t="n">
-        <v>0.02358401849384182</v>
+        <v>0.02358401849422362</v>
       </c>
       <c r="U133" t="n">
-        <v>0.08376145524878049</v>
+        <v>0.08376145524634482</v>
       </c>
       <c r="V133" t="n">
-        <v>0.01291123094712378</v>
+        <v>0.01291123094732123</v>
       </c>
       <c r="W133" t="n">
-        <v>0.3607565789000002</v>
+        <v>0.3607565788141187</v>
       </c>
       <c r="X133" t="n">
-        <v>0.01125890845004249</v>
+        <v>0.01125890844987883</v>
       </c>
       <c r="Y133" t="n">
-        <v>0.09126107261463415</v>
+        <v>0.0912610726181152</v>
       </c>
       <c r="Z133" t="n">
-        <v>0.01380091793504644</v>
+        <v>0.01380091793493247</v>
       </c>
       <c r="AA133" t="n">
-        <v>0.3509254238999997</v>
+        <v>0.3509254238976496</v>
       </c>
       <c r="AB133" t="n">
-        <v>0.01265963683714876</v>
+        <v>0.01265963683771021</v>
       </c>
       <c r="AC133" t="n">
-        <v>0.06430073452323819</v>
+        <v>0.06430073452197393</v>
       </c>
       <c r="AD133" t="n">
-        <v>0.006895550469334686</v>
+        <v>0.006895550469267309</v>
       </c>
       <c r="AE133" t="n">
-        <v>0.3913400928000001</v>
+        <v>0.3913400928617961</v>
       </c>
       <c r="AF133" t="n">
-        <v>0.01300561713487638</v>
+        <v>0.01300561713461585</v>
       </c>
       <c r="AG133" t="n">
-        <v>0.1072976628446476</v>
+        <v>0.1072976628447024</v>
       </c>
       <c r="AH133" t="n">
-        <v>0.01516319759373594</v>
+        <v>0.01516319759342623</v>
       </c>
       <c r="AI133" t="n">
-        <v>0.5917145929999998</v>
+        <v>0.5917145930445855</v>
       </c>
       <c r="AJ133" t="n">
-        <v>0.02183540846803772</v>
+        <v>0.02183540846800879</v>
       </c>
     </row>
     <row r="134">
@@ -15223,100 +15223,100 @@
         <v>16</v>
       </c>
       <c r="E134" t="n">
-        <v>0.0148189487</v>
+        <v>0.01481894869357347</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0004164112</v>
+        <v>0.0004164111742284149</v>
       </c>
       <c r="G134" t="n">
-        <v>0.0871018767</v>
+        <v>0.08710187673568726</v>
       </c>
       <c r="H134" t="n">
-        <v>4.8332076073</v>
+        <v>4.833207607269287</v>
       </c>
       <c r="I134" t="n">
-        <v>0.018618172</v>
+        <v>0.01861817203462124</v>
       </c>
       <c r="J134" t="n">
-        <v>0.000821732</v>
+        <v>0.0008217319846153259</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1591485143</v>
+        <v>0.1591485142707825</v>
       </c>
       <c r="L134" t="n">
-        <v>11.7967271805</v>
+        <v>11.79672718048096</v>
       </c>
       <c r="M134" t="n">
-        <v>0.06746456112195125</v>
+        <v>0.06746456112111159</v>
       </c>
       <c r="N134" t="n">
-        <v>0.008697732992990042</v>
+        <v>0.008697732993395371</v>
       </c>
       <c r="O134" t="n">
-        <v>0.3459549242</v>
+        <v>0.3459549242627418</v>
       </c>
       <c r="P134" t="n">
-        <v>0.01464229325030269</v>
+        <v>0.01464229325016305</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.1167897181939025</v>
+        <v>0.1167897181926217</v>
       </c>
       <c r="R134" t="n">
-        <v>0.02527688843585619</v>
+        <v>0.0252768884349198</v>
       </c>
       <c r="S134" t="n">
-        <v>0.5766277946000002</v>
+        <v>0.5766277946176785</v>
       </c>
       <c r="T134" t="n">
-        <v>0.02545796567051618</v>
+        <v>0.02545796567004883</v>
       </c>
       <c r="U134" t="n">
-        <v>0.08661340804634142</v>
+        <v>0.08661340804434495</v>
       </c>
       <c r="V134" t="n">
-        <v>0.01379700692702654</v>
+        <v>0.01379700692747293</v>
       </c>
       <c r="W134" t="n">
-        <v>0.3644352743999999</v>
+        <v>0.3644352743493471</v>
       </c>
       <c r="X134" t="n">
-        <v>0.0115955583905737</v>
+        <v>0.01159555839048647</v>
       </c>
       <c r="Y134" t="n">
-        <v>0.09948950046585361</v>
+        <v>0.09948950047132905</v>
       </c>
       <c r="Z134" t="n">
-        <v>0.01590847508879345</v>
+        <v>0.01590847508939822</v>
       </c>
       <c r="AA134" t="n">
-        <v>0.3662508074000002</v>
+        <v>0.366250807356522</v>
       </c>
       <c r="AB134" t="n">
-        <v>0.01391862731344204</v>
+        <v>0.01391862731428664</v>
       </c>
       <c r="AC134" t="n">
-        <v>0.06500609714264051</v>
+        <v>0.0650060971409236</v>
       </c>
       <c r="AD134" t="n">
-        <v>0.00702603654587912</v>
+        <v>0.007026036545703983</v>
       </c>
       <c r="AE134" t="n">
-        <v>0.3948308258000006</v>
+        <v>0.3948308258514288</v>
       </c>
       <c r="AF134" t="n">
-        <v>0.01313433028053512</v>
+        <v>0.01313433028019709</v>
       </c>
       <c r="AG134" t="n">
-        <v>0.1213766803070026</v>
+        <v>0.1213766803070248</v>
       </c>
       <c r="AH134" t="n">
-        <v>0.01854755512554034</v>
+        <v>0.01854755512516776</v>
       </c>
       <c r="AI134" t="n">
-        <v>0.5766277946000002</v>
+        <v>0.5766277946176785</v>
       </c>
       <c r="AJ134" t="n">
-        <v>0.02469354132229222</v>
+        <v>0.02469354132227546</v>
       </c>
     </row>
     <row r="135">
@@ -15335,100 +15335,100 @@
         <v>32</v>
       </c>
       <c r="E135" t="n">
-        <v>0.0154739106</v>
+        <v>0.01547391060739756</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0004515132</v>
+        <v>0.00045151321683079</v>
       </c>
       <c r="G135" t="n">
-        <v>0.0855107605</v>
+        <v>0.08551076054573059</v>
       </c>
       <c r="H135" t="n">
-        <v>5.4404478073</v>
+        <v>5.440447807312012</v>
       </c>
       <c r="I135" t="n">
-        <v>0.0168693792</v>
+        <v>0.01686937920749187</v>
       </c>
       <c r="J135" t="n">
-        <v>0.000714957</v>
+        <v>0.0007149569573812187</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1539503336</v>
+        <v>0.1539503335952759</v>
       </c>
       <c r="L135" t="n">
-        <v>10.5329399109</v>
+        <v>10.53293991088867</v>
       </c>
       <c r="M135" t="n">
-        <v>0.06754865488292687</v>
+        <v>0.06754865488310195</v>
       </c>
       <c r="N135" t="n">
-        <v>0.00908071435706817</v>
+        <v>0.009080714357637068</v>
       </c>
       <c r="O135" t="n">
-        <v>0.3673362586</v>
+        <v>0.3673362586424247</v>
       </c>
       <c r="P135" t="n">
-        <v>0.01456117701581316</v>
+        <v>0.01456117701594317</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.1125129644707317</v>
+        <v>0.1125129644717501</v>
       </c>
       <c r="R135" t="n">
-        <v>0.02982570801950404</v>
+        <v>0.02982570801901182</v>
       </c>
       <c r="S135" t="n">
-        <v>0.6854813914000006</v>
+        <v>0.6854813914006712</v>
       </c>
       <c r="T135" t="n">
-        <v>0.02394085915738522</v>
+        <v>0.02394085915751463</v>
       </c>
       <c r="U135" t="n">
-        <v>0.0876605589768293</v>
+        <v>0.08766055897715229</v>
       </c>
       <c r="V135" t="n">
-        <v>0.01419794292130601</v>
+        <v>0.01419794292236921</v>
       </c>
       <c r="W135" t="n">
-        <v>0.3626997649000003</v>
+        <v>0.3626997648415511</v>
       </c>
       <c r="X135" t="n">
-        <v>0.01165041806248404</v>
+        <v>0.01165041806283084</v>
       </c>
       <c r="Y135" t="n">
-        <v>0.09699856545609761</v>
+        <v>0.09699856545445394</v>
       </c>
       <c r="Z135" t="n">
-        <v>0.01580815664097879</v>
+        <v>0.01580815664000513</v>
       </c>
       <c r="AA135" t="n">
-        <v>0.4111483636000006</v>
+        <v>0.4111483635460615</v>
       </c>
       <c r="AB135" t="n">
-        <v>0.01339620799272114</v>
+        <v>0.01339620799262825</v>
       </c>
       <c r="AC135" t="n">
-        <v>0.06324244249121322</v>
+        <v>0.06324244248960034</v>
       </c>
       <c r="AD135" t="n">
-        <v>0.00668417738888004</v>
+        <v>0.006684177388688956</v>
       </c>
       <c r="AE135" t="n">
-        <v>0.3902962719000005</v>
+        <v>0.3902962719259477</v>
       </c>
       <c r="AF135" t="n">
-        <v>0.0127549986947939</v>
+        <v>0.01275499869447544</v>
       </c>
       <c r="AG135" t="n">
-        <v>0.1088511898719447</v>
+        <v>0.1088511898716731</v>
       </c>
       <c r="AH135" t="n">
-        <v>0.01577691011397803</v>
+        <v>0.01577691011366814</v>
       </c>
       <c r="AI135" t="n">
-        <v>0.6854813914000006</v>
+        <v>0.6854813914006712</v>
       </c>
       <c r="AJ135" t="n">
-        <v>0.02211450058514797</v>
+        <v>0.02211450058507513</v>
       </c>
     </row>
     <row r="136">
@@ -15447,100 +15447,100 @@
         <v>64</v>
       </c>
       <c r="E136" t="n">
-        <v>0.0156944245</v>
+        <v>0.01569442451000214</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0004292891</v>
+        <v>0.0004292890662327409</v>
       </c>
       <c r="G136" t="n">
-        <v>0.08418381210000001</v>
+        <v>0.08418381214141846</v>
       </c>
       <c r="H136" t="n">
-        <v>5.0393924713</v>
+        <v>5.039392471313477</v>
       </c>
       <c r="I136" t="n">
-        <v>0.0159250181</v>
+        <v>0.01592501811683178</v>
       </c>
       <c r="J136" t="n">
-        <v>0.0005767461</v>
+        <v>0.0005767461261712015</v>
       </c>
       <c r="K136" t="n">
-        <v>0.1477852464</v>
+        <v>0.1477852463722229</v>
       </c>
       <c r="L136" t="n">
-        <v>10.110004425</v>
+        <v>10.11000442504883</v>
       </c>
       <c r="M136" t="n">
-        <v>0.06653564358536591</v>
+        <v>0.06653564358186798</v>
       </c>
       <c r="N136" t="n">
-        <v>0.008697019901166973</v>
+        <v>0.008697019901965477</v>
       </c>
       <c r="O136" t="n">
-        <v>0.3435047832000002</v>
+        <v>0.3435047831959679</v>
       </c>
       <c r="P136" t="n">
-        <v>0.01437704185055615</v>
+        <v>0.01437704184978631</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.1315817190926828</v>
+        <v>0.131581719091801</v>
       </c>
       <c r="R136" t="n">
-        <v>0.03553413770790761</v>
+        <v>0.03553413770781852</v>
       </c>
       <c r="S136" t="n">
-        <v>0.7604633217000005</v>
+        <v>0.760463321716685</v>
       </c>
       <c r="T136" t="n">
-        <v>0.02785803623993897</v>
+        <v>0.02785803623966534</v>
       </c>
       <c r="U136" t="n">
-        <v>0.08554916406341466</v>
+        <v>0.08554916406074173</v>
       </c>
       <c r="V136" t="n">
-        <v>0.01347699758030259</v>
+        <v>0.01347699758062316</v>
       </c>
       <c r="W136" t="n">
-        <v>0.3617246030000008</v>
+        <v>0.3617246029187413</v>
       </c>
       <c r="X136" t="n">
-        <v>0.01142241738798573</v>
+        <v>0.0114224173877772</v>
       </c>
       <c r="Y136" t="n">
-        <v>0.08896002521341469</v>
+        <v>0.08896002521082362</v>
       </c>
       <c r="Z136" t="n">
-        <v>0.01344220053112872</v>
+        <v>0.01344220052985762</v>
       </c>
       <c r="AA136" t="n">
-        <v>0.3437597343000007</v>
+        <v>0.3437597342299341</v>
       </c>
       <c r="AB136" t="n">
-        <v>0.01224505427432916</v>
+        <v>0.01224505427404448</v>
       </c>
       <c r="AC136" t="n">
-        <v>0.06192690064817128</v>
+        <v>0.06192690064746289</v>
       </c>
       <c r="AD136" t="n">
-        <v>0.006398115269540327</v>
+        <v>0.006398115269449823</v>
       </c>
       <c r="AE136" t="n">
-        <v>0.3876493310000004</v>
+        <v>0.3876493310148703</v>
       </c>
       <c r="AF136" t="n">
-        <v>0.01248885657128759</v>
+        <v>0.01248885657115232</v>
       </c>
       <c r="AG136" t="n">
-        <v>0.1117723573658786</v>
+        <v>0.111772357366697</v>
       </c>
       <c r="AH136" t="n">
-        <v>0.01647785816199072</v>
+        <v>0.01647785816185178</v>
       </c>
       <c r="AI136" t="n">
-        <v>0.7604633217000005</v>
+        <v>0.760463321716685</v>
       </c>
       <c r="AJ136" t="n">
-        <v>0.02272889601456433</v>
+        <v>0.02272889601472434</v>
       </c>
     </row>
     <row r="137">
@@ -15559,100 +15559,100 @@
         <v>96</v>
       </c>
       <c r="E137" t="n">
-        <v>0.0161254369</v>
+        <v>0.01612543687224388</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0004827734</v>
+        <v>0.0004827734082937241</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1061091125</v>
+        <v>0.1061091125011444</v>
       </c>
       <c r="H137" t="n">
-        <v>5.3187298775</v>
+        <v>5.318729877471924</v>
       </c>
       <c r="I137" t="n">
-        <v>0.0205759816</v>
+        <v>0.02057598158717155</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0009926881000000001</v>
+        <v>0.0009926881175488234</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1747274399</v>
+        <v>0.1747274398803711</v>
       </c>
       <c r="L137" t="n">
-        <v>14.0289888382</v>
+        <v>14.0289888381958</v>
       </c>
       <c r="M137" t="n">
-        <v>0.07444187426341463</v>
+        <v>0.07444187425627118</v>
       </c>
       <c r="N137" t="n">
-        <v>0.01055196466529608</v>
+        <v>0.0105519646638001</v>
       </c>
       <c r="O137" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="P137" t="n">
-        <v>0.0161533696929656</v>
+        <v>0.01615336969132296</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.1282499552987805</v>
+        <v>0.1282499552958985</v>
       </c>
       <c r="R137" t="n">
-        <v>0.03746960251724715</v>
+        <v>0.03746960251600263</v>
       </c>
       <c r="S137" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="T137" t="n">
-        <v>0.02930170675952837</v>
+        <v>0.02930170675881541</v>
       </c>
       <c r="U137" t="n">
-        <v>0.09053138744512196</v>
+        <v>0.09053138744756849</v>
       </c>
       <c r="V137" t="n">
-        <v>0.01651683867363462</v>
+        <v>0.01651683867536988</v>
       </c>
       <c r="W137" t="n">
-        <v>0.4168078256999994</v>
+        <v>0.4168078256613796</v>
       </c>
       <c r="X137" t="n">
-        <v>0.0118803537142524</v>
+        <v>0.01188035371497087</v>
       </c>
       <c r="Y137" t="n">
-        <v>0.1732818563768292</v>
+        <v>0.1732818563728552</v>
       </c>
       <c r="Z137" t="n">
-        <v>0.04326476548738586</v>
+        <v>0.04326476548636007</v>
       </c>
       <c r="AA137" t="n">
-        <v>0.520778645</v>
+        <v>0.5207786449601883</v>
       </c>
       <c r="AB137" t="n">
-        <v>0.02209302400966938</v>
+        <v>0.02209302400901611</v>
       </c>
       <c r="AC137" t="n">
-        <v>0.05976369129103479</v>
+        <v>0.0597636912890572</v>
       </c>
       <c r="AD137" t="n">
-        <v>0.005953484664470454</v>
+        <v>0.005953484664205113</v>
       </c>
       <c r="AE137" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="AF137" t="n">
-        <v>0.01198766450368917</v>
+        <v>0.01198766450328915</v>
       </c>
       <c r="AG137" t="n">
-        <v>0.07628948176302409</v>
+        <v>0.07628948176384816</v>
       </c>
       <c r="AH137" t="n">
-        <v>0.009305095789038856</v>
+        <v>0.009305095788885913</v>
       </c>
       <c r="AI137" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="AJ137" t="n">
-        <v>0.01510741225142839</v>
+        <v>0.01510741225159347</v>
       </c>
     </row>
     <row r="138">
@@ -15671,100 +15671,100 @@
         <v>128</v>
       </c>
       <c r="E138" t="n">
-        <v>0.0161254369</v>
+        <v>0.01612543687224388</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0004827734</v>
+        <v>0.0004827734082937241</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1061091125</v>
+        <v>0.1061091125011444</v>
       </c>
       <c r="H138" t="n">
-        <v>5.3187298775</v>
+        <v>5.318729877471924</v>
       </c>
       <c r="I138" t="n">
-        <v>0.0205759816</v>
+        <v>0.02057598158717155</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0009926881000000001</v>
+        <v>0.0009926881175488234</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1747274399</v>
+        <v>0.1747274398803711</v>
       </c>
       <c r="L138" t="n">
-        <v>14.0289888382</v>
+        <v>14.0289888381958</v>
       </c>
       <c r="M138" t="n">
-        <v>0.07444187426341463</v>
+        <v>0.07444187425627118</v>
       </c>
       <c r="N138" t="n">
-        <v>0.01055196466529608</v>
+        <v>0.0105519646638001</v>
       </c>
       <c r="O138" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="P138" t="n">
-        <v>0.0161533696929656</v>
+        <v>0.01615336969132296</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.1282499552987805</v>
+        <v>0.1282499552958985</v>
       </c>
       <c r="R138" t="n">
-        <v>0.03746960251724715</v>
+        <v>0.03746960251600263</v>
       </c>
       <c r="S138" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="T138" t="n">
-        <v>0.02930170675952837</v>
+        <v>0.02930170675881541</v>
       </c>
       <c r="U138" t="n">
-        <v>0.09053138744512196</v>
+        <v>0.09053138744756849</v>
       </c>
       <c r="V138" t="n">
-        <v>0.01651683867363462</v>
+        <v>0.01651683867536988</v>
       </c>
       <c r="W138" t="n">
-        <v>0.4168078256999994</v>
+        <v>0.4168078256613796</v>
       </c>
       <c r="X138" t="n">
-        <v>0.0118803537142524</v>
+        <v>0.01188035371497087</v>
       </c>
       <c r="Y138" t="n">
-        <v>0.1732818563768292</v>
+        <v>0.1732818563728552</v>
       </c>
       <c r="Z138" t="n">
-        <v>0.04326476548738586</v>
+        <v>0.04326476548636007</v>
       </c>
       <c r="AA138" t="n">
-        <v>0.520778645</v>
+        <v>0.5207786449601883</v>
       </c>
       <c r="AB138" t="n">
-        <v>0.02209302400966938</v>
+        <v>0.02209302400901611</v>
       </c>
       <c r="AC138" t="n">
-        <v>0.05976369129103479</v>
+        <v>0.0597636912890572</v>
       </c>
       <c r="AD138" t="n">
-        <v>0.005953484664470454</v>
+        <v>0.005953484664205113</v>
       </c>
       <c r="AE138" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="AF138" t="n">
-        <v>0.01198766450368917</v>
+        <v>0.01198766450328915</v>
       </c>
       <c r="AG138" t="n">
-        <v>0.07628948176302409</v>
+        <v>0.07628948176384816</v>
       </c>
       <c r="AH138" t="n">
-        <v>0.009305095789038856</v>
+        <v>0.009305095788885913</v>
       </c>
       <c r="AI138" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="AJ138" t="n">
-        <v>0.01510741225142839</v>
+        <v>0.01510741225159347</v>
       </c>
     </row>
     <row r="139">
@@ -15783,100 +15783,100 @@
         <v>160</v>
       </c>
       <c r="E139" t="n">
-        <v>0.0161254369</v>
+        <v>0.01612543687224388</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0004827734</v>
+        <v>0.0004827734082937241</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1061091125</v>
+        <v>0.1061091125011444</v>
       </c>
       <c r="H139" t="n">
-        <v>5.3187298775</v>
+        <v>5.318729877471924</v>
       </c>
       <c r="I139" t="n">
-        <v>0.0205759816</v>
+        <v>0.02057598158717155</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0009926881000000001</v>
+        <v>0.0009926881175488234</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1747274399</v>
+        <v>0.1747274398803711</v>
       </c>
       <c r="L139" t="n">
-        <v>14.0289888382</v>
+        <v>14.0289888381958</v>
       </c>
       <c r="M139" t="n">
-        <v>0.07444187426341463</v>
+        <v>0.07444187425627118</v>
       </c>
       <c r="N139" t="n">
-        <v>0.01055196466529608</v>
+        <v>0.0105519646638001</v>
       </c>
       <c r="O139" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="P139" t="n">
-        <v>0.0161533696929656</v>
+        <v>0.01615336969132296</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.1282499552987805</v>
+        <v>0.1282499552958985</v>
       </c>
       <c r="R139" t="n">
-        <v>0.03746960251724715</v>
+        <v>0.03746960251600263</v>
       </c>
       <c r="S139" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="T139" t="n">
-        <v>0.02930170675952837</v>
+        <v>0.02930170675881541</v>
       </c>
       <c r="U139" t="n">
-        <v>0.09053138744512196</v>
+        <v>0.09053138744756849</v>
       </c>
       <c r="V139" t="n">
-        <v>0.01651683867363462</v>
+        <v>0.01651683867536988</v>
       </c>
       <c r="W139" t="n">
-        <v>0.4168078256999994</v>
+        <v>0.4168078256613796</v>
       </c>
       <c r="X139" t="n">
-        <v>0.0118803537142524</v>
+        <v>0.01188035371497087</v>
       </c>
       <c r="Y139" t="n">
-        <v>0.1732818563768292</v>
+        <v>0.1732818563728552</v>
       </c>
       <c r="Z139" t="n">
-        <v>0.04326476548738586</v>
+        <v>0.04326476548636007</v>
       </c>
       <c r="AA139" t="n">
-        <v>0.520778645</v>
+        <v>0.5207786449601883</v>
       </c>
       <c r="AB139" t="n">
-        <v>0.02209302400966938</v>
+        <v>0.02209302400901611</v>
       </c>
       <c r="AC139" t="n">
-        <v>0.05976369129103479</v>
+        <v>0.0597636912890572</v>
       </c>
       <c r="AD139" t="n">
-        <v>0.005953484664470454</v>
+        <v>0.005953484664205113</v>
       </c>
       <c r="AE139" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="AF139" t="n">
-        <v>0.01198766450368917</v>
+        <v>0.01198766450328915</v>
       </c>
       <c r="AG139" t="n">
-        <v>0.07628948176302409</v>
+        <v>0.07628948176384816</v>
       </c>
       <c r="AH139" t="n">
-        <v>0.009305095789038856</v>
+        <v>0.009305095788885913</v>
       </c>
       <c r="AI139" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="AJ139" t="n">
-        <v>0.01510741225142839</v>
+        <v>0.01510741225159347</v>
       </c>
     </row>
     <row r="140">
@@ -15895,100 +15895,100 @@
         <v>192</v>
       </c>
       <c r="E140" t="n">
-        <v>0.0161254369</v>
+        <v>0.01612543687224388</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0004827734</v>
+        <v>0.0004827734082937241</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1061091125</v>
+        <v>0.1061091125011444</v>
       </c>
       <c r="H140" t="n">
-        <v>5.3187298775</v>
+        <v>5.318729877471924</v>
       </c>
       <c r="I140" t="n">
-        <v>0.0205759816</v>
+        <v>0.02057598158717155</v>
       </c>
       <c r="J140" t="n">
-        <v>0.0009926881000000001</v>
+        <v>0.0009926881175488234</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1747274399</v>
+        <v>0.1747274398803711</v>
       </c>
       <c r="L140" t="n">
-        <v>14.0289888382</v>
+        <v>14.0289888381958</v>
       </c>
       <c r="M140" t="n">
-        <v>0.07444187426341463</v>
+        <v>0.07444187425627118</v>
       </c>
       <c r="N140" t="n">
-        <v>0.01055196466529608</v>
+        <v>0.0105519646638001</v>
       </c>
       <c r="O140" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="P140" t="n">
-        <v>0.0161533696929656</v>
+        <v>0.01615336969132296</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.1282499552987805</v>
+        <v>0.1282499552958985</v>
       </c>
       <c r="R140" t="n">
-        <v>0.03746960251724715</v>
+        <v>0.03746960251600263</v>
       </c>
       <c r="S140" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="T140" t="n">
-        <v>0.02930170675952837</v>
+        <v>0.02930170675881541</v>
       </c>
       <c r="U140" t="n">
-        <v>0.09053138744512196</v>
+        <v>0.09053138744756849</v>
       </c>
       <c r="V140" t="n">
-        <v>0.01651683867363462</v>
+        <v>0.01651683867536988</v>
       </c>
       <c r="W140" t="n">
-        <v>0.4168078256999994</v>
+        <v>0.4168078256613796</v>
       </c>
       <c r="X140" t="n">
-        <v>0.0118803537142524</v>
+        <v>0.01188035371497087</v>
       </c>
       <c r="Y140" t="n">
-        <v>0.1732818563768292</v>
+        <v>0.1732818563728552</v>
       </c>
       <c r="Z140" t="n">
-        <v>0.04326476548738586</v>
+        <v>0.04326476548636007</v>
       </c>
       <c r="AA140" t="n">
-        <v>0.520778645</v>
+        <v>0.5207786449601883</v>
       </c>
       <c r="AB140" t="n">
-        <v>0.02209302400966938</v>
+        <v>0.02209302400901611</v>
       </c>
       <c r="AC140" t="n">
-        <v>0.05976369129103479</v>
+        <v>0.0597636912890572</v>
       </c>
       <c r="AD140" t="n">
-        <v>0.005953484664470454</v>
+        <v>0.005953484664205113</v>
       </c>
       <c r="AE140" t="n">
-        <v>0.4242608685000002</v>
+        <v>0.4242608685293021</v>
       </c>
       <c r="AF140" t="n">
-        <v>0.01198766450368917</v>
+        <v>0.01198766450328915</v>
       </c>
       <c r="AG140" t="n">
-        <v>0.07628948176302409</v>
+        <v>0.07628948176384816</v>
       </c>
       <c r="AH140" t="n">
-        <v>0.009305095789038856</v>
+        <v>0.009305095788885913</v>
       </c>
       <c r="AI140" t="n">
-        <v>0.6487656115</v>
+        <v>0.6487656114737916</v>
       </c>
       <c r="AJ140" t="n">
-        <v>0.01510741225142839</v>
+        <v>0.01510741225159347</v>
       </c>
     </row>
     <row r="141">
@@ -16007,100 +16007,100 @@
         <v>8</v>
       </c>
       <c r="E141" t="n">
-        <v>0.0125469239</v>
+        <v>0.01254692394286394</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0002715813</v>
+        <v>0.0002715813170652837</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0609151423</v>
+        <v>0.06091514229774475</v>
       </c>
       <c r="H141" t="n">
-        <v>4.2522463799</v>
+        <v>4.252246379852295</v>
       </c>
       <c r="I141" t="n">
-        <v>0.0164460037</v>
+        <v>0.01644600369036198</v>
       </c>
       <c r="J141" t="n">
-        <v>0.0006368058</v>
+        <v>0.0006368058384396136</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1396930218</v>
+        <v>0.139693021774292</v>
       </c>
       <c r="L141" t="n">
-        <v>9.7528800964</v>
+        <v>9.752880096435547</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0769071878926829</v>
+        <v>0.07690718789245538</v>
       </c>
       <c r="N141" t="n">
-        <v>0.0117487035381204</v>
+        <v>0.01174870353774202</v>
       </c>
       <c r="O141" t="n">
-        <v>0.4416084858999998</v>
+        <v>0.4416084858929707</v>
       </c>
       <c r="P141" t="n">
-        <v>0.01642525693854102</v>
+        <v>0.01642525693851681</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.08249563368780492</v>
+        <v>0.08249563368528216</v>
       </c>
       <c r="R141" t="n">
-        <v>0.01329800604946805</v>
+        <v>0.01329800605022018</v>
       </c>
       <c r="S141" t="n">
-        <v>0.4683047756000001</v>
+        <v>0.4683047756532659</v>
       </c>
       <c r="T141" t="n">
-        <v>0.01747194256569466</v>
+        <v>0.01747194256514461</v>
       </c>
       <c r="U141" t="n">
-        <v>0.08139310754146346</v>
+        <v>0.08139310753859054</v>
       </c>
       <c r="V141" t="n">
-        <v>0.0122202061809655</v>
+        <v>0.01222020618187299</v>
       </c>
       <c r="W141" t="n">
-        <v>0.3571652366000002</v>
+        <v>0.3571652365776572</v>
       </c>
       <c r="X141" t="n">
-        <v>0.01107562003187239</v>
+        <v>0.0110756200313971</v>
       </c>
       <c r="Y141" t="n">
-        <v>0.08577865001707316</v>
+        <v>0.08577865001899387</v>
       </c>
       <c r="Z141" t="n">
-        <v>0.0130994890925908</v>
+        <v>0.01309948909245412</v>
       </c>
       <c r="AA141" t="n">
-        <v>0.3549841232999995</v>
+        <v>0.354984123277319</v>
       </c>
       <c r="AB141" t="n">
-        <v>0.01166743007234584</v>
+        <v>0.0116674300726526</v>
       </c>
       <c r="AC141" t="n">
-        <v>0.05623596491088314</v>
+        <v>0.05623596491013245</v>
       </c>
       <c r="AD141" t="n">
-        <v>0.005035518689101483</v>
+        <v>0.005035518688916392</v>
       </c>
       <c r="AE141" t="n">
-        <v>0.4416084858999998</v>
+        <v>0.4416084858929707</v>
       </c>
       <c r="AF141" t="n">
-        <v>0.01127756182056651</v>
+        <v>0.01127756182042475</v>
       </c>
       <c r="AG141" t="n">
-        <v>0.06157823141632471</v>
+        <v>0.06157823141530418</v>
       </c>
       <c r="AH141" t="n">
-        <v>0.005825965529407246</v>
+        <v>0.005825965529194129</v>
       </c>
       <c r="AI141" t="n">
-        <v>0.4683047756000001</v>
+        <v>0.4683047756532659</v>
       </c>
       <c r="AJ141" t="n">
-        <v>0.01232419240497261</v>
+        <v>0.01232419240475997</v>
       </c>
     </row>
     <row r="142">
@@ -16119,100 +16119,100 @@
         <v>16</v>
       </c>
       <c r="E142" t="n">
-        <v>0.0153946253</v>
+        <v>0.01539462525397539</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0004253215</v>
+        <v>0.0004253214574418962</v>
       </c>
       <c r="G142" t="n">
-        <v>0.09427660700000001</v>
+        <v>0.09427660703659058</v>
       </c>
       <c r="H142" t="n">
-        <v>5.0661897659</v>
+        <v>5.066189765930176</v>
       </c>
       <c r="I142" t="n">
-        <v>0.0176613051</v>
+        <v>0.01766130514442921</v>
       </c>
       <c r="J142" t="n">
-        <v>0.0007576992</v>
+        <v>0.0007576991920359433</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1527045965</v>
+        <v>0.1527045965194702</v>
       </c>
       <c r="L142" t="n">
-        <v>11.2509622574</v>
+        <v>11.25096225738525</v>
       </c>
       <c r="M142" t="n">
-        <v>0.09228747983170729</v>
+        <v>0.09228747983754375</v>
       </c>
       <c r="N142" t="n">
-        <v>0.01442383993251522</v>
+        <v>0.01442383993472275</v>
       </c>
       <c r="O142" t="n">
-        <v>0.3522805606999997</v>
+        <v>0.3522805607090476</v>
       </c>
       <c r="P142" t="n">
-        <v>0.01973177327049733</v>
+        <v>0.01973177327164006</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.2279691950231707</v>
+        <v>0.227969195024125</v>
       </c>
       <c r="R142" t="n">
-        <v>0.06732081571219886</v>
+        <v>0.06732081571422091</v>
       </c>
       <c r="S142" t="n">
-        <v>0.5915349579000004</v>
+        <v>0.5915349579535416</v>
       </c>
       <c r="T142" t="n">
-        <v>0.04762246371660417</v>
+        <v>0.04762246371661445</v>
       </c>
       <c r="U142" t="n">
-        <v>0.09314314101585364</v>
+        <v>0.09314314101260274</v>
       </c>
       <c r="V142" t="n">
-        <v>0.01411598180870034</v>
+        <v>0.01411598180925487</v>
       </c>
       <c r="W142" t="n">
-        <v>0.3529967507999991</v>
+        <v>0.352996750756347</v>
       </c>
       <c r="X142" t="n">
-        <v>0.01320552559466187</v>
+        <v>0.01320552559439055</v>
       </c>
       <c r="Y142" t="n">
-        <v>0.1268116503719512</v>
+        <v>0.1268116503712168</v>
       </c>
       <c r="Z142" t="n">
-        <v>0.0254101401328</v>
+        <v>0.02541014013161672</v>
       </c>
       <c r="AA142" t="n">
-        <v>0.3689675752000001</v>
+        <v>0.368967575215521</v>
       </c>
       <c r="AB142" t="n">
-        <v>0.02020181480706438</v>
+        <v>0.02020181480682303</v>
       </c>
       <c r="AC142" t="n">
-        <v>0.1007980792704282</v>
+        <v>0.1007980792698589</v>
       </c>
       <c r="AD142" t="n">
-        <v>0.01418714760064449</v>
+        <v>0.01418714760048511</v>
       </c>
       <c r="AE142" t="n">
-        <v>0.4424699840000006</v>
+        <v>0.4424699840170518</v>
       </c>
       <c r="AF142" t="n">
-        <v>0.02048493839160735</v>
+        <v>0.02048493839149433</v>
       </c>
       <c r="AG142" t="n">
-        <v>0.280291366123372</v>
+        <v>0.2802913661214019</v>
       </c>
       <c r="AH142" t="n">
-        <v>0.08378233848889581</v>
+        <v>0.08378233848770127</v>
       </c>
       <c r="AI142" t="n">
-        <v>0.6088522262999998</v>
+        <v>0.608852226343231</v>
       </c>
       <c r="AJ142" t="n">
-        <v>0.05708935310379711</v>
+        <v>0.05708935310337414</v>
       </c>
     </row>
     <row r="143">
@@ -16231,100 +16231,100 @@
         <v>32</v>
       </c>
       <c r="E143" t="n">
-        <v>0.0128931403</v>
+        <v>0.01289314031600952</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0002846095</v>
+        <v>0.0002846094721462578</v>
       </c>
       <c r="G143" t="n">
-        <v>0.0694528818</v>
+        <v>0.06945288181304932</v>
       </c>
       <c r="H143" t="n">
-        <v>4.6490197182</v>
+        <v>4.649019718170166</v>
       </c>
       <c r="I143" t="n">
-        <v>0.0155352764</v>
+        <v>0.01553527638316154</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0005257552</v>
+        <v>0.0005257551674731076</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1160475016</v>
+        <v>0.1160475015640259</v>
       </c>
       <c r="L143" t="n">
-        <v>10.4582872391</v>
+        <v>10.45828723907471</v>
       </c>
       <c r="M143" t="n">
-        <v>0.09390155257560981</v>
+        <v>0.09390155257560256</v>
       </c>
       <c r="N143" t="n">
-        <v>0.01635848619477527</v>
+        <v>0.01635848619662173</v>
       </c>
       <c r="O143" t="n">
-        <v>0.5028044001000005</v>
+        <v>0.5028044001726641</v>
       </c>
       <c r="P143" t="n">
-        <v>0.01997467515318332</v>
+        <v>0.01997467515321402</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.1441024919670732</v>
+        <v>0.1441024919656689</v>
       </c>
       <c r="R143" t="n">
-        <v>0.03749345742446057</v>
+        <v>0.03749345742380144</v>
       </c>
       <c r="S143" t="n">
-        <v>0.6358619985000002</v>
+        <v>0.6358619985322633</v>
       </c>
       <c r="T143" t="n">
-        <v>0.030575496282198</v>
+        <v>0.03057549628207167</v>
       </c>
       <c r="U143" t="n">
-        <v>0.09093364435975607</v>
+        <v>0.09093364435312501</v>
       </c>
       <c r="V143" t="n">
-        <v>0.01397599656016891</v>
+        <v>0.01397599655889941</v>
       </c>
       <c r="W143" t="n">
-        <v>0.3589123026000003</v>
+        <v>0.3589123025529943</v>
       </c>
       <c r="X143" t="n">
-        <v>0.01301796197138342</v>
+        <v>0.01301796197044234</v>
       </c>
       <c r="Y143" t="n">
-        <v>0.1363946378682928</v>
+        <v>0.136394637867805</v>
       </c>
       <c r="Z143" t="n">
-        <v>0.02863691977234806</v>
+        <v>0.02863691977035517</v>
       </c>
       <c r="AA143" t="n">
-        <v>0.4131933939000003</v>
+        <v>0.4131933939130619</v>
       </c>
       <c r="AB143" t="n">
-        <v>0.02112121323206319</v>
+        <v>0.02112121323183195</v>
       </c>
       <c r="AC143" t="n">
-        <v>0.0964978367719893</v>
+        <v>0.0964978367720421</v>
       </c>
       <c r="AD143" t="n">
-        <v>0.01259401506548301</v>
+        <v>0.01259401506550873</v>
       </c>
       <c r="AE143" t="n">
-        <v>0.5028044001000005</v>
+        <v>0.5028044001726641</v>
       </c>
       <c r="AF143" t="n">
-        <v>0.01939803805405566</v>
+        <v>0.01939803805408614</v>
       </c>
       <c r="AG143" t="n">
-        <v>1.845650945908965</v>
+        <v>1.845650945908836</v>
       </c>
       <c r="AH143" t="n">
-        <v>3.650434695866504</v>
+        <v>3.650434695865534</v>
       </c>
       <c r="AI143" t="n">
-        <v>2.2846001621</v>
+        <v>2.284600162070788</v>
       </c>
       <c r="AJ143" t="n">
-        <v>0.3754006290242347</v>
+        <v>0.3754006290241814</v>
       </c>
     </row>
     <row r="144">
@@ -16343,100 +16343,100 @@
         <v>64</v>
       </c>
       <c r="E144" t="n">
-        <v>0.0124616884</v>
+        <v>0.01246168836951256</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0002779265</v>
+        <v>0.0002779264759737998</v>
       </c>
       <c r="G144" t="n">
-        <v>0.0679052472</v>
+        <v>0.0679052472114563</v>
       </c>
       <c r="H144" t="n">
-        <v>3.9550230503</v>
+        <v>3.955023050308228</v>
       </c>
       <c r="I144" t="n">
-        <v>0.0133317076</v>
+        <v>0.01333170756697655</v>
       </c>
       <c r="J144" t="n">
-        <v>0.0003787371</v>
+        <v>0.0003787370806094259</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1165373325</v>
+        <v>0.11653733253479</v>
       </c>
       <c r="L144" t="n">
-        <v>11.5557003021</v>
+        <v>11.55570030212402</v>
       </c>
       <c r="M144" t="n">
-        <v>0.0806360645804878</v>
+        <v>0.08063606457547656</v>
       </c>
       <c r="N144" t="n">
-        <v>0.01151847068378098</v>
+        <v>0.01151847068287284</v>
       </c>
       <c r="O144" t="n">
-        <v>0.3951350013999999</v>
+        <v>0.3951350014165342</v>
       </c>
       <c r="P144" t="n">
-        <v>0.01723819742622324</v>
+        <v>0.01723819742529321</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.1473634142902439</v>
+        <v>0.1473634142832291</v>
       </c>
       <c r="R144" t="n">
-        <v>0.03001222990275312</v>
+        <v>0.03001222990177765</v>
       </c>
       <c r="S144" t="n">
-        <v>0.3545570148000001</v>
+        <v>0.3545570148666002</v>
       </c>
       <c r="T144" t="n">
-        <v>0.03130698669999966</v>
+        <v>0.03130698669824275</v>
       </c>
       <c r="U144" t="n">
-        <v>0.08426662134390249</v>
+        <v>0.08426662135170164</v>
       </c>
       <c r="V144" t="n">
-        <v>0.01260106103432806</v>
+        <v>0.01260106103550697</v>
       </c>
       <c r="W144" t="n">
-        <v>0.3532720666000007</v>
+        <v>0.3532720666007094</v>
       </c>
       <c r="X144" t="n">
-        <v>0.01162797492039579</v>
+        <v>0.01162797492153698</v>
       </c>
       <c r="Y144" t="n">
-        <v>0.1099583890195123</v>
+        <v>0.1099583890200714</v>
       </c>
       <c r="Z144" t="n">
-        <v>0.01879003544841152</v>
+        <v>0.01879003544717648</v>
       </c>
       <c r="AA144" t="n">
-        <v>0.3657248402000004</v>
+        <v>0.3657248401684967</v>
       </c>
       <c r="AB144" t="n">
-        <v>0.01614942559559062</v>
+        <v>0.01614942559557144</v>
       </c>
       <c r="AC144" t="n">
-        <v>0.07179011435521855</v>
+        <v>0.07179011435556362</v>
       </c>
       <c r="AD144" t="n">
-        <v>0.007545101720156704</v>
+        <v>0.007545101720087806</v>
       </c>
       <c r="AE144" t="n">
-        <v>0.3951350013999999</v>
+        <v>0.3951350014165342</v>
       </c>
       <c r="AF144" t="n">
-        <v>0.01439532385291613</v>
+        <v>0.01439532385297889</v>
       </c>
       <c r="AG144" t="n">
-        <v>0.3582743173037466</v>
+        <v>0.3582743173044436</v>
       </c>
       <c r="AH144" t="n">
-        <v>0.1359421509496164</v>
+        <v>0.1359421509500603</v>
       </c>
       <c r="AI144" t="n">
-        <v>0.5617926813999992</v>
+        <v>0.5617926814087539</v>
       </c>
       <c r="AJ144" t="n">
-        <v>0.07266121008145505</v>
+        <v>0.07266121008158971</v>
       </c>
     </row>
     <row r="145">
@@ -16455,100 +16455,100 @@
         <v>96</v>
       </c>
       <c r="E145" t="n">
-        <v>0.0160168987</v>
+        <v>0.01601689867675304</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0005104067000000001</v>
+        <v>0.0005104066804051399</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1192003489</v>
+        <v>0.1192003488540649</v>
       </c>
       <c r="H145" t="n">
-        <v>5.2765927315</v>
+        <v>5.27659273147583</v>
       </c>
       <c r="I145" t="n">
-        <v>0.0208414979</v>
+        <v>0.02084149792790413</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0010848654</v>
+        <v>0.001084865420125425</v>
       </c>
       <c r="K145" t="n">
-        <v>0.2013890147</v>
+        <v>0.2013890147209167</v>
       </c>
       <c r="L145" t="n">
-        <v>15.4517097473</v>
+        <v>15.45170974731445</v>
       </c>
       <c r="M145" t="n">
-        <v>0.08417649927317074</v>
+        <v>0.08417649927337492</v>
       </c>
       <c r="N145" t="n">
-        <v>0.01372336420526447</v>
+        <v>0.01372336420591155</v>
       </c>
       <c r="O145" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="P145" t="n">
-        <v>0.01876877703528106</v>
+        <v>0.01876877703517937</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.2116728901780488</v>
+        <v>0.2116728901782717</v>
       </c>
       <c r="R145" t="n">
-        <v>0.06856634939178997</v>
+        <v>0.06856634939155554</v>
       </c>
       <c r="S145" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="T145" t="n">
-        <v>0.04942764072058955</v>
+        <v>0.0494276407206755</v>
       </c>
       <c r="U145" t="n">
-        <v>0.08807165639024389</v>
+        <v>0.08807165639877973</v>
       </c>
       <c r="V145" t="n">
-        <v>0.01535122657201172</v>
+        <v>0.01535122657328425</v>
       </c>
       <c r="W145" t="n">
-        <v>0.4063053760000006</v>
+        <v>0.4063053759392119</v>
       </c>
       <c r="X145" t="n">
-        <v>0.01159227014989241</v>
+        <v>0.011592270150957</v>
       </c>
       <c r="Y145" t="n">
-        <v>0.2049117815573171</v>
+        <v>0.204911781558953</v>
       </c>
       <c r="Z145" t="n">
-        <v>0.06553514063946492</v>
+        <v>0.06553514064158024</v>
       </c>
       <c r="AA145" t="n">
-        <v>0.6462101643999993</v>
+        <v>0.6462101643789993</v>
       </c>
       <c r="AB145" t="n">
-        <v>0.02553651305890697</v>
+        <v>0.02553651305925761</v>
       </c>
       <c r="AC145" t="n">
-        <v>0.0571251856324264</v>
+        <v>0.05712518563127597</v>
       </c>
       <c r="AD145" t="n">
-        <v>0.005724132357170831</v>
+        <v>0.005724132357147475</v>
       </c>
       <c r="AE145" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="AF145" t="n">
-        <v>0.01152132656376961</v>
+        <v>0.01152132656350697</v>
       </c>
       <c r="AG145" t="n">
-        <v>0.1947562618727476</v>
+        <v>0.1947562618728877</v>
       </c>
       <c r="AH145" t="n">
-        <v>0.0428254157078834</v>
+        <v>0.04282541570764936</v>
       </c>
       <c r="AI145" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="AJ145" t="n">
-        <v>0.03946122824933711</v>
+        <v>0.03946122824934953</v>
       </c>
     </row>
     <row r="146">
@@ -16567,100 +16567,100 @@
         <v>128</v>
       </c>
       <c r="E146" t="n">
-        <v>0.0160168987</v>
+        <v>0.01601689867675304</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0005104067000000001</v>
+        <v>0.0005104066804051399</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1192003489</v>
+        <v>0.1192003488540649</v>
       </c>
       <c r="H146" t="n">
-        <v>5.2765927315</v>
+        <v>5.27659273147583</v>
       </c>
       <c r="I146" t="n">
-        <v>0.0208414979</v>
+        <v>0.02084149792790413</v>
       </c>
       <c r="J146" t="n">
-        <v>0.0010848654</v>
+        <v>0.001084865420125425</v>
       </c>
       <c r="K146" t="n">
-        <v>0.2013890147</v>
+        <v>0.2013890147209167</v>
       </c>
       <c r="L146" t="n">
-        <v>15.4517097473</v>
+        <v>15.45170974731445</v>
       </c>
       <c r="M146" t="n">
-        <v>0.08417649927317074</v>
+        <v>0.08417649927337492</v>
       </c>
       <c r="N146" t="n">
-        <v>0.01372336420526447</v>
+        <v>0.01372336420591155</v>
       </c>
       <c r="O146" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="P146" t="n">
-        <v>0.01876877703528106</v>
+        <v>0.01876877703517937</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.2116728901780488</v>
+        <v>0.2116728901782717</v>
       </c>
       <c r="R146" t="n">
-        <v>0.06856634939178997</v>
+        <v>0.06856634939155554</v>
       </c>
       <c r="S146" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="T146" t="n">
-        <v>0.04942764072058955</v>
+        <v>0.0494276407206755</v>
       </c>
       <c r="U146" t="n">
-        <v>0.08807165639024389</v>
+        <v>0.08807165639877973</v>
       </c>
       <c r="V146" t="n">
-        <v>0.01535122657201172</v>
+        <v>0.01535122657328425</v>
       </c>
       <c r="W146" t="n">
-        <v>0.4063053760000006</v>
+        <v>0.4063053759392119</v>
       </c>
       <c r="X146" t="n">
-        <v>0.01159227014989241</v>
+        <v>0.011592270150957</v>
       </c>
       <c r="Y146" t="n">
-        <v>0.2049117815573171</v>
+        <v>0.204911781558953</v>
       </c>
       <c r="Z146" t="n">
-        <v>0.06553514063946492</v>
+        <v>0.06553514064158024</v>
       </c>
       <c r="AA146" t="n">
-        <v>0.6462101643999993</v>
+        <v>0.6462101643789993</v>
       </c>
       <c r="AB146" t="n">
-        <v>0.02553651305890697</v>
+        <v>0.02553651305925761</v>
       </c>
       <c r="AC146" t="n">
-        <v>0.0571251856324264</v>
+        <v>0.05712518563127597</v>
       </c>
       <c r="AD146" t="n">
-        <v>0.005724132357170831</v>
+        <v>0.005724132357147475</v>
       </c>
       <c r="AE146" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="AF146" t="n">
-        <v>0.01152132656376961</v>
+        <v>0.01152132656350697</v>
       </c>
       <c r="AG146" t="n">
-        <v>0.1947562618727476</v>
+        <v>0.1947562618728877</v>
       </c>
       <c r="AH146" t="n">
-        <v>0.0428254157078834</v>
+        <v>0.04282541570764936</v>
       </c>
       <c r="AI146" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="AJ146" t="n">
-        <v>0.03946122824933711</v>
+        <v>0.03946122824934953</v>
       </c>
     </row>
     <row r="147">
@@ -16679,100 +16679,100 @@
         <v>160</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0160168987</v>
+        <v>0.01601689867675304</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0005104067000000001</v>
+        <v>0.0005104066804051399</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1192003489</v>
+        <v>0.1192003488540649</v>
       </c>
       <c r="H147" t="n">
-        <v>5.2765927315</v>
+        <v>5.27659273147583</v>
       </c>
       <c r="I147" t="n">
-        <v>0.0208414979</v>
+        <v>0.02084149792790413</v>
       </c>
       <c r="J147" t="n">
-        <v>0.0010848654</v>
+        <v>0.001084865420125425</v>
       </c>
       <c r="K147" t="n">
-        <v>0.2013890147</v>
+        <v>0.2013890147209167</v>
       </c>
       <c r="L147" t="n">
-        <v>15.4517097473</v>
+        <v>15.45170974731445</v>
       </c>
       <c r="M147" t="n">
-        <v>0.08417649927317074</v>
+        <v>0.08417649927337492</v>
       </c>
       <c r="N147" t="n">
-        <v>0.01372336420526447</v>
+        <v>0.01372336420591155</v>
       </c>
       <c r="O147" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="P147" t="n">
-        <v>0.01876877703528106</v>
+        <v>0.01876877703517937</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.2116728901780488</v>
+        <v>0.2116728901782717</v>
       </c>
       <c r="R147" t="n">
-        <v>0.06856634939178997</v>
+        <v>0.06856634939155554</v>
       </c>
       <c r="S147" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="T147" t="n">
-        <v>0.04942764072058955</v>
+        <v>0.0494276407206755</v>
       </c>
       <c r="U147" t="n">
-        <v>0.08807165639024389</v>
+        <v>0.08807165639877973</v>
       </c>
       <c r="V147" t="n">
-        <v>0.01535122657201172</v>
+        <v>0.01535122657328425</v>
       </c>
       <c r="W147" t="n">
-        <v>0.4063053760000006</v>
+        <v>0.4063053759392119</v>
       </c>
       <c r="X147" t="n">
-        <v>0.01159227014989241</v>
+        <v>0.011592270150957</v>
       </c>
       <c r="Y147" t="n">
-        <v>0.2049117815573171</v>
+        <v>0.204911781558953</v>
       </c>
       <c r="Z147" t="n">
-        <v>0.06553514063946492</v>
+        <v>0.06553514064158024</v>
       </c>
       <c r="AA147" t="n">
-        <v>0.6462101643999993</v>
+        <v>0.6462101643789993</v>
       </c>
       <c r="AB147" t="n">
-        <v>0.02553651305890697</v>
+        <v>0.02553651305925761</v>
       </c>
       <c r="AC147" t="n">
-        <v>0.0571251856324264</v>
+        <v>0.05712518563127597</v>
       </c>
       <c r="AD147" t="n">
-        <v>0.005724132357170831</v>
+        <v>0.005724132357147475</v>
       </c>
       <c r="AE147" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="AF147" t="n">
-        <v>0.01152132656376961</v>
+        <v>0.01152132656350697</v>
       </c>
       <c r="AG147" t="n">
-        <v>0.1947562618727476</v>
+        <v>0.1947562618728877</v>
       </c>
       <c r="AH147" t="n">
-        <v>0.0428254157078834</v>
+        <v>0.04282541570764936</v>
       </c>
       <c r="AI147" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="AJ147" t="n">
-        <v>0.03946122824933711</v>
+        <v>0.03946122824934953</v>
       </c>
     </row>
     <row r="148">
@@ -16791,100 +16791,100 @@
         <v>192</v>
       </c>
       <c r="E148" t="n">
-        <v>0.0160168987</v>
+        <v>0.01601689867675304</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0005104067000000001</v>
+        <v>0.0005104066804051399</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1192003489</v>
+        <v>0.1192003488540649</v>
       </c>
       <c r="H148" t="n">
-        <v>5.2765927315</v>
+        <v>5.27659273147583</v>
       </c>
       <c r="I148" t="n">
-        <v>0.0208414979</v>
+        <v>0.02084149792790413</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0010848654</v>
+        <v>0.001084865420125425</v>
       </c>
       <c r="K148" t="n">
-        <v>0.2013890147</v>
+        <v>0.2013890147209167</v>
       </c>
       <c r="L148" t="n">
-        <v>15.4517097473</v>
+        <v>15.45170974731445</v>
       </c>
       <c r="M148" t="n">
-        <v>0.08417649927317074</v>
+        <v>0.08417649927337492</v>
       </c>
       <c r="N148" t="n">
-        <v>0.01372336420526447</v>
+        <v>0.01372336420591155</v>
       </c>
       <c r="O148" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="P148" t="n">
-        <v>0.01876877703528106</v>
+        <v>0.01876877703517937</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.2116728901780488</v>
+        <v>0.2116728901782717</v>
       </c>
       <c r="R148" t="n">
-        <v>0.06856634939178997</v>
+        <v>0.06856634939155554</v>
       </c>
       <c r="S148" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="T148" t="n">
-        <v>0.04942764072058955</v>
+        <v>0.0494276407206755</v>
       </c>
       <c r="U148" t="n">
-        <v>0.08807165639024389</v>
+        <v>0.08807165639877973</v>
       </c>
       <c r="V148" t="n">
-        <v>0.01535122657201172</v>
+        <v>0.01535122657328425</v>
       </c>
       <c r="W148" t="n">
-        <v>0.4063053760000006</v>
+        <v>0.4063053759392119</v>
       </c>
       <c r="X148" t="n">
-        <v>0.01159227014989241</v>
+        <v>0.011592270150957</v>
       </c>
       <c r="Y148" t="n">
-        <v>0.2049117815573171</v>
+        <v>0.204911781558953</v>
       </c>
       <c r="Z148" t="n">
-        <v>0.06553514063946492</v>
+        <v>0.06553514064158024</v>
       </c>
       <c r="AA148" t="n">
-        <v>0.6462101643999993</v>
+        <v>0.6462101643789993</v>
       </c>
       <c r="AB148" t="n">
-        <v>0.02553651305890697</v>
+        <v>0.02553651305925761</v>
       </c>
       <c r="AC148" t="n">
-        <v>0.0571251856324264</v>
+        <v>0.05712518563127597</v>
       </c>
       <c r="AD148" t="n">
-        <v>0.005724132357170831</v>
+        <v>0.005724132357147475</v>
       </c>
       <c r="AE148" t="n">
-        <v>0.4813826181000005</v>
+        <v>0.4813826181565872</v>
       </c>
       <c r="AF148" t="n">
-        <v>0.01152132656376961</v>
+        <v>0.01152132656350697</v>
       </c>
       <c r="AG148" t="n">
-        <v>0.1947562618727476</v>
+        <v>0.1947562618728877</v>
       </c>
       <c r="AH148" t="n">
-        <v>0.0428254157078834</v>
+        <v>0.04282541570764936</v>
       </c>
       <c r="AI148" t="n">
-        <v>0.7492819632999996</v>
+        <v>0.7492819632950543</v>
       </c>
       <c r="AJ148" t="n">
-        <v>0.03946122824933711</v>
+        <v>0.03946122824934953</v>
       </c>
     </row>
   </sheetData>
